--- a/src/data/output2.xlsx
+++ b/src/data/output2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE214A6-7CED-7549-AC5A-1A0584AE5899}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AFD100-1B75-FF43-BE59-0562E675EE66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,9 +189,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,12 +238,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +606,14 @@
   <dimension ref="A1:I532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -630,10 +634,10 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -659,10 +663,10 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>43391.25</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>43391.254166666673</v>
       </c>
     </row>
@@ -688,10 +692,10 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>43391.254166666673</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>43391.258333333331</v>
       </c>
     </row>
@@ -717,10 +721,10 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>43391.25</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>43391.729166666657</v>
       </c>
     </row>
@@ -746,10 +750,10 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>43391.258333333331</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>43391.262499999997</v>
       </c>
     </row>
@@ -775,10 +779,10 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>43391.258333333331</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>43391.333333333343</v>
       </c>
     </row>
@@ -804,10 +808,10 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>43391.25</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>43391.85833333333</v>
       </c>
     </row>
@@ -833,10 +837,10 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>43391.333333333343</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>43391.408333333333</v>
       </c>
     </row>
@@ -862,10 +866,10 @@
       <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>43391.262499999997</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>43391.26666666667</v>
       </c>
     </row>
@@ -891,10 +895,10 @@
       <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>43391.26666666667</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>43391.270833333343</v>
       </c>
     </row>
@@ -920,10 +924,10 @@
       <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>43391.270833333343</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>43391.275000000001</v>
       </c>
     </row>
@@ -949,10 +953,10 @@
       <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>43391.275000000001</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>43391.279166666667</v>
       </c>
     </row>
@@ -978,10 +982,10 @@
       <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>43391.279166666667</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>43391.283333333333</v>
       </c>
     </row>
@@ -1007,10 +1011,10 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>43391.283333333333</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>43391.287499999999</v>
       </c>
     </row>
@@ -1036,10 +1040,10 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>43391.25</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <v>43391.324999999997</v>
       </c>
     </row>
@@ -1065,10 +1069,10 @@
       <c r="G16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>43391.408333333333</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <v>43391.48333333333</v>
       </c>
     </row>
@@ -1094,10 +1098,10 @@
       <c r="G17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>43391.48333333333</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <v>43391.558333333327</v>
       </c>
     </row>
@@ -1123,10 +1127,10 @@
       <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>43391.729166666657</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>43392.208333333343</v>
       </c>
     </row>
@@ -1152,10 +1156,10 @@
       <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>43391.85833333333</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <v>43392.466666666667</v>
       </c>
     </row>
@@ -1181,10 +1185,10 @@
       <c r="G20" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>43391.287499999999</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <v>43391.291666666657</v>
       </c>
     </row>
@@ -1210,10 +1214,10 @@
       <c r="G21" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="3">
         <v>43391.558333333327</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="3">
         <v>43391.633333333331</v>
       </c>
     </row>
@@ -1239,10 +1243,10 @@
       <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>43392.466666666667</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="3">
         <v>43393.004166666673</v>
       </c>
     </row>
@@ -1268,10 +1272,10 @@
       <c r="G23" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <v>43393.004166666673</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="3">
         <v>43393.541666666657</v>
       </c>
     </row>
@@ -1297,10 +1301,10 @@
       <c r="G24" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <v>43392.208333333343</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <v>43392.462500000001</v>
       </c>
     </row>
@@ -1326,10 +1330,10 @@
       <c r="G25" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <v>43391.291666666657</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
         <v>43391.29583333333</v>
       </c>
     </row>
@@ -1355,10 +1359,10 @@
       <c r="G26" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <v>43391.29583333333</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="3">
         <v>43391.3</v>
       </c>
     </row>
@@ -1384,10 +1388,10 @@
       <c r="G27" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="3">
         <v>43392.462500000001</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="3">
         <v>43392.941666666673</v>
       </c>
     </row>
@@ -1413,10 +1417,10 @@
       <c r="G28" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <v>43394.541666666657</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="3">
         <v>43395.433333333327</v>
       </c>
     </row>
@@ -1442,10 +1446,10 @@
       <c r="G29" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="3">
         <v>43391.85833333333</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="3">
         <v>43391.945833333331</v>
       </c>
     </row>
@@ -1471,10 +1475,10 @@
       <c r="G30" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>43393.004166666673</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="3">
         <v>43393.091666666667</v>
       </c>
     </row>
@@ -1500,10 +1504,10 @@
       <c r="G31" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="3">
         <v>43391.324999999997</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="3">
         <v>43391.4</v>
       </c>
     </row>
@@ -1529,10 +1533,10 @@
       <c r="G32" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="3">
         <v>43393.004166666673</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="3">
         <v>43393.541666666657</v>
       </c>
     </row>
@@ -1558,10 +1562,10 @@
       <c r="G33" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="3">
         <v>43395.433333333327</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="3">
         <v>43395.98333333333</v>
       </c>
     </row>
@@ -1587,10 +1591,10 @@
       <c r="G34" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="3">
         <v>43393.091666666667</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="3">
         <v>43393.179166666669</v>
       </c>
     </row>
@@ -1616,10 +1620,10 @@
       <c r="G35" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="3">
         <v>43391.4</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="3">
         <v>43391.474999999999</v>
       </c>
     </row>
@@ -1645,10 +1649,10 @@
       <c r="G36" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="3">
         <v>43391.474999999999</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="3">
         <v>43391.55</v>
       </c>
     </row>
@@ -1674,10 +1678,10 @@
       <c r="G37" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="3">
         <v>43391.3</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="3">
         <v>43391.304166666669</v>
       </c>
     </row>
@@ -1703,10 +1707,10 @@
       <c r="G38" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="3">
         <v>43391.633333333331</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="3">
         <v>43391.708333333343</v>
       </c>
     </row>
@@ -1732,10 +1736,10 @@
       <c r="G39" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="3">
         <v>43395.98333333333</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="3">
         <v>43396.520833333343</v>
       </c>
     </row>
@@ -1761,10 +1765,10 @@
       <c r="G40" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="3">
         <v>43395.98333333333</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="3">
         <v>43396.520833333343</v>
       </c>
     </row>
@@ -1790,10 +1794,10 @@
       <c r="G41" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="3">
         <v>43396.520833333343</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="3">
         <v>43397.058333333327</v>
       </c>
     </row>
@@ -1819,10 +1823,10 @@
       <c r="G42" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="3">
         <v>43392.208333333343</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="3">
         <v>43392.45</v>
       </c>
     </row>
@@ -1848,10 +1852,10 @@
       <c r="G43" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="3">
         <v>43392.941666666673</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="3">
         <v>43393.195833333331</v>
       </c>
     </row>
@@ -1877,10 +1881,10 @@
       <c r="G44" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="3">
         <v>43391.304166666669</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="3">
         <v>43391.308333333327</v>
       </c>
     </row>
@@ -1906,10 +1910,10 @@
       <c r="G45" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="3">
         <v>43391.308333333327</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="3">
         <v>43391.3125</v>
       </c>
     </row>
@@ -1935,10 +1939,10 @@
       <c r="G46" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="3">
         <v>43397.058333333327</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="3">
         <v>43397.595833333333</v>
       </c>
     </row>
@@ -1964,10 +1968,10 @@
       <c r="G47" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="3">
         <v>43393.195833333331</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="3">
         <v>43393.45</v>
       </c>
     </row>
@@ -1993,10 +1997,10 @@
       <c r="G48" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="3">
         <v>43397.595833333333</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="3">
         <v>43398.20416666667</v>
       </c>
     </row>
@@ -2022,10 +2026,10 @@
       <c r="G49" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="3">
         <v>43398.20416666667</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="3">
         <v>43398.741666666669</v>
       </c>
     </row>
@@ -2051,10 +2055,10 @@
       <c r="G50" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="3">
         <v>43391.55</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="3">
         <v>43391.625</v>
       </c>
     </row>
@@ -2080,10 +2084,10 @@
       <c r="G51" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="3">
         <v>43391.3125</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="3">
         <v>43391.316666666673</v>
       </c>
     </row>
@@ -2109,10 +2113,10 @@
       <c r="G52" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="3">
         <v>43393.195833333331</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="3">
         <v>43393.45</v>
       </c>
     </row>
@@ -2138,10 +2142,10 @@
       <c r="G53" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="3">
         <v>43393.45</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="3">
         <v>43393.929166666669</v>
       </c>
     </row>
@@ -2167,10 +2171,10 @@
       <c r="G54" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="3">
         <v>43397.595833333333</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="3">
         <v>43398.20416666667</v>
       </c>
     </row>
@@ -2196,10 +2200,10 @@
       <c r="G55" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="3">
         <v>43391.316666666673</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="3">
         <v>43391.320833333331</v>
       </c>
     </row>
@@ -2225,10 +2229,10 @@
       <c r="G56" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="3">
         <v>43392.45</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="3">
         <v>43392.525000000001</v>
       </c>
     </row>
@@ -2254,10 +2258,10 @@
       <c r="G57" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="3">
         <v>43391.320833333331</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="3">
         <v>43391.324999999997</v>
       </c>
     </row>
@@ -2283,10 +2287,10 @@
       <c r="G58" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="3">
         <v>43395.98333333333</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="3">
         <v>43396.070833333331</v>
       </c>
     </row>
@@ -2312,10 +2316,10 @@
       <c r="G59" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="3">
         <v>43391.625</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="3">
         <v>43391.7</v>
       </c>
     </row>
@@ -2341,10 +2345,10 @@
       <c r="G60" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="3">
         <v>43398.741666666669</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="3">
         <v>43399.35</v>
       </c>
     </row>
@@ -2370,10 +2374,10 @@
       <c r="G61" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="3">
         <v>43392.525000000001</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="3">
         <v>43392.6</v>
       </c>
     </row>
@@ -2399,10 +2403,10 @@
       <c r="G62" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="3">
         <v>43399.35</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="3">
         <v>43399.887499999997</v>
       </c>
     </row>
@@ -2428,10 +2432,10 @@
       <c r="G63" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="3">
         <v>43397.058333333327</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="3">
         <v>43397.145833333343</v>
       </c>
     </row>
@@ -2457,10 +2461,10 @@
       <c r="G64" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="3">
         <v>43398.741666666669</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="3">
         <v>43399.35</v>
       </c>
     </row>
@@ -2486,10 +2490,10 @@
       <c r="G65" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="3">
         <v>43391.324999999997</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="3">
         <v>43391.32916666667</v>
       </c>
     </row>
@@ -2515,10 +2519,10 @@
       <c r="G66" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="3">
         <v>43391.32916666667</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="3">
         <v>43391.333333333343</v>
       </c>
     </row>
@@ -2544,10 +2548,10 @@
       <c r="G67" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="3">
         <v>43397.158333333333</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="3">
         <v>43397.245833333327</v>
       </c>
     </row>
@@ -2573,10 +2577,10 @@
       <c r="G68" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="3">
         <v>43393.929166666669</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="3">
         <v>43394.17083333333</v>
       </c>
     </row>
@@ -2602,10 +2606,10 @@
       <c r="G69" t="s">
         <v>17</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="3">
         <v>43395.17083333333</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="3">
         <v>43395.412499999999</v>
       </c>
     </row>
@@ -2631,10 +2635,10 @@
       <c r="G70" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="3">
         <v>43399.887499999997</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="3">
         <v>43400.495833333327</v>
       </c>
     </row>
@@ -2660,10 +2664,10 @@
       <c r="G71" t="s">
         <v>17</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="3">
         <v>43399.35</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="3">
         <v>43399.887499999997</v>
       </c>
     </row>
@@ -2689,10 +2693,10 @@
       <c r="G72" t="s">
         <v>17</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="3">
         <v>43397.595833333333</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="3">
         <v>43397.683333333327</v>
       </c>
     </row>
@@ -2718,10 +2722,10 @@
       <c r="G73" t="s">
         <v>23</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="3">
         <v>43395.412499999999</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="3">
         <v>43395.45</v>
       </c>
     </row>
@@ -2747,10 +2751,10 @@
       <c r="G74" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="3">
         <v>43393.091666666667</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="3">
         <v>43393.39166666667</v>
       </c>
     </row>
@@ -2776,10 +2780,10 @@
       <c r="G75" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="3">
         <v>43397.245833333327</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="3">
         <v>43397.54583333333</v>
       </c>
     </row>
@@ -2805,10 +2809,10 @@
       <c r="G76" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="3">
         <v>43397.683333333327</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="3">
         <v>43397.824999999997</v>
       </c>
     </row>
@@ -2834,10 +2838,10 @@
       <c r="G77" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="3">
         <v>43397.158333333333</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="3">
         <v>43397.245833333327</v>
       </c>
     </row>
@@ -2863,10 +2867,10 @@
       <c r="G78" t="s">
         <v>23</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="3">
         <v>43393.929166666669</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="3">
         <v>43394.183333333327</v>
       </c>
     </row>
@@ -2892,10 +2896,10 @@
       <c r="G79" t="s">
         <v>23</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="3">
         <v>43395.45</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="3">
         <v>43395.487500000003</v>
       </c>
     </row>
@@ -2921,10 +2925,10 @@
       <c r="G80" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="3">
         <v>43400.495833333327</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="3">
         <v>43401.033333333333</v>
       </c>
     </row>
@@ -2950,10 +2954,10 @@
       <c r="G81" t="s">
         <v>17</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="3">
         <v>43391.7</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="3">
         <v>43391.775000000001</v>
       </c>
     </row>
@@ -2979,10 +2983,10 @@
       <c r="G82" t="s">
         <v>17</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="3">
         <v>43397.54583333333</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="3">
         <v>43397.845833333333</v>
       </c>
     </row>
@@ -3008,10 +3012,10 @@
       <c r="G83" t="s">
         <v>17</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="3">
         <v>43401.033333333333</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="3">
         <v>43401.120833333327</v>
       </c>
     </row>
@@ -3037,10 +3041,10 @@
       <c r="G84" t="s">
         <v>23</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="3">
         <v>43393.929166666669</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="3">
         <v>43394.183333333327</v>
       </c>
     </row>
@@ -3066,10 +3070,10 @@
       <c r="G85" t="s">
         <v>17</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="3">
         <v>43397.595833333333</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="3">
         <v>43397.683333333327</v>
       </c>
     </row>
@@ -3095,10 +3099,10 @@
       <c r="G86" t="s">
         <v>17</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="3">
         <v>43401.120833333327</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="3">
         <v>43401.208333333343</v>
       </c>
     </row>
@@ -3124,10 +3128,10 @@
       <c r="G87" t="s">
         <v>17</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="3">
         <v>43395.487500000003</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="3">
         <v>43395.5625</v>
       </c>
     </row>
@@ -3153,10 +3157,10 @@
       <c r="G88" t="s">
         <v>17</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="3">
         <v>43401.208333333343</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="3">
         <v>43401.29583333333</v>
       </c>
     </row>
@@ -3182,10 +3186,10 @@
       <c r="G89" t="s">
         <v>17</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="3">
         <v>43401.120833333327</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="3">
         <v>43401.42083333333</v>
       </c>
     </row>
@@ -3211,10 +3215,10 @@
       <c r="G90" t="s">
         <v>17</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="3">
         <v>43395.183333333327</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="3">
         <v>43395.662499999999</v>
       </c>
     </row>
@@ -3240,10 +3244,10 @@
       <c r="G91" t="s">
         <v>17</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="3">
         <v>43401.033333333333</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I91" s="3">
         <v>43401.583333333343</v>
       </c>
     </row>
@@ -3269,10 +3273,10 @@
       <c r="G92" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="3">
         <v>43395.662499999999</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="3">
         <v>43395.904166666667</v>
       </c>
     </row>
@@ -3298,10 +3302,10 @@
       <c r="G93" t="s">
         <v>23</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="3">
         <v>43391.333333333343</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="3">
         <v>43391.337500000001</v>
       </c>
     </row>
@@ -3327,10 +3331,10 @@
       <c r="G94" t="s">
         <v>17</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="3">
         <v>43401.645833333343</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="3">
         <v>43401.945833333331</v>
       </c>
     </row>
@@ -3356,10 +3360,10 @@
       <c r="G95" t="s">
         <v>23</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95" s="3">
         <v>43391.337500000001</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="3">
         <v>43391.341666666667</v>
       </c>
     </row>
@@ -3385,10 +3389,10 @@
       <c r="G96" t="s">
         <v>23</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96" s="3">
         <v>43395.662499999999</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="3">
         <v>43395.916666666657</v>
       </c>
     </row>
@@ -3414,10 +3418,10 @@
       <c r="G97" t="s">
         <v>17</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="3">
         <v>43397.824999999997</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="3">
         <v>43398.45</v>
       </c>
     </row>
@@ -3443,10 +3447,10 @@
       <c r="G98" t="s">
         <v>17</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="3">
         <v>43397.845833333333</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="3">
         <v>43398.116666666669</v>
       </c>
     </row>
@@ -3472,10 +3476,10 @@
       <c r="G99" t="s">
         <v>23</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="3">
         <v>43391.341666666667</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="3">
         <v>43391.345833333333</v>
       </c>
     </row>
@@ -3501,10 +3505,10 @@
       <c r="G100" t="s">
         <v>17</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="3">
         <v>43401.945833333331</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="3">
         <v>43402.245833333327</v>
       </c>
     </row>
@@ -3530,10 +3534,10 @@
       <c r="G101" t="s">
         <v>17</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="3">
         <v>43401.208333333343</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="3">
         <v>43401.29583333333</v>
       </c>
     </row>
@@ -3559,10 +3563,10 @@
       <c r="G102" t="s">
         <v>17</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="3">
         <v>43403.245833333327</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="3">
         <v>43403.54583333333</v>
       </c>
     </row>
@@ -3588,10 +3592,10 @@
       <c r="G103" t="s">
         <v>23</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="3">
         <v>43391.345833333333</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="3">
         <v>43391.35</v>
       </c>
     </row>
@@ -3617,10 +3621,10 @@
       <c r="G104" t="s">
         <v>17</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104" s="3">
         <v>43403.245833333327</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="3">
         <v>43403.51666666667</v>
       </c>
     </row>
@@ -3646,10 +3650,10 @@
       <c r="G105" t="s">
         <v>23</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105" s="3">
         <v>43395.5625</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="3">
         <v>43395.745833333327</v>
       </c>
     </row>
@@ -3675,10 +3679,10 @@
       <c r="G106" t="s">
         <v>23</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="3">
         <v>43395.916666666657</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="3">
         <v>43396.17083333333</v>
       </c>
     </row>
@@ -3704,10 +3708,10 @@
       <c r="G107" t="s">
         <v>17</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107" s="3">
         <v>43395.745833333327</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="3">
         <v>43395.987500000003</v>
       </c>
     </row>
@@ -3733,10 +3737,10 @@
       <c r="G108" t="s">
         <v>23</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="3">
         <v>43395.916666666657</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="3">
         <v>43396.17083333333</v>
       </c>
     </row>
@@ -3762,10 +3766,10 @@
       <c r="G109" t="s">
         <v>17</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109" s="3">
         <v>43403.54583333333</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="3">
         <v>43403.845833333333</v>
       </c>
     </row>
@@ -3791,10 +3795,10 @@
       <c r="G110" t="s">
         <v>17</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="3">
         <v>43401.033333333333</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="3">
         <v>43401.120833333327</v>
       </c>
     </row>
@@ -3820,10 +3824,10 @@
       <c r="G111" t="s">
         <v>23</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="3">
         <v>43395.987500000003</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="3">
         <v>43396.025000000001</v>
       </c>
     </row>
@@ -3849,10 +3853,10 @@
       <c r="G112" t="s">
         <v>23</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="3">
         <v>43395.916666666657</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="3">
         <v>43396.17083333333</v>
       </c>
     </row>
@@ -3878,10 +3882,10 @@
       <c r="G113" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="3">
         <v>43403.845833333333</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="3">
         <v>43404.145833333343</v>
       </c>
     </row>
@@ -3907,10 +3911,10 @@
       <c r="G114" t="s">
         <v>17</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="3">
         <v>43401.583333333343</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="3">
         <v>43401.67083333333</v>
       </c>
     </row>
@@ -3936,10 +3940,10 @@
       <c r="G115" t="s">
         <v>17</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115" s="3">
         <v>43403.51666666667</v>
       </c>
-      <c r="I115" s="2">
+      <c r="I115" s="3">
         <v>43403.787499999999</v>
       </c>
     </row>
@@ -3965,10 +3969,10 @@
       <c r="G116" t="s">
         <v>23</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H116" s="3">
         <v>43395.916666666657</v>
       </c>
-      <c r="I116" s="2">
+      <c r="I116" s="3">
         <v>43396.17083333333</v>
       </c>
     </row>
@@ -3994,10 +3998,10 @@
       <c r="G117" t="s">
         <v>17</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H117" s="3">
         <v>43396.17083333333</v>
       </c>
-      <c r="I117" s="2">
+      <c r="I117" s="3">
         <v>43396.65</v>
       </c>
     </row>
@@ -4023,10 +4027,10 @@
       <c r="G118" t="s">
         <v>17</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H118" s="3">
         <v>43396.65</v>
       </c>
-      <c r="I118" s="2">
+      <c r="I118" s="3">
         <v>43397.129166666673</v>
       </c>
     </row>
@@ -4052,10 +4056,10 @@
       <c r="G119" t="s">
         <v>23</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H119" s="3">
         <v>43395.904166666667</v>
       </c>
-      <c r="I119" s="2">
+      <c r="I119" s="3">
         <v>43395.941666666673</v>
       </c>
     </row>
@@ -4081,10 +4085,10 @@
       <c r="G120" t="s">
         <v>17</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H120" s="3">
         <v>43401.583333333343</v>
       </c>
-      <c r="I120" s="2">
+      <c r="I120" s="3">
         <v>43402.120833333327</v>
       </c>
     </row>
@@ -4110,10 +4114,10 @@
       <c r="G121" t="s">
         <v>23</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H121" s="3">
         <v>43396.025000000001</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I121" s="3">
         <v>43396.0625</v>
       </c>
     </row>
@@ -4139,10 +4143,10 @@
       <c r="G122" t="s">
         <v>23</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122" s="3">
         <v>43403.120833333327</v>
       </c>
-      <c r="I122" s="2">
+      <c r="I122" s="3">
         <v>43404.012499999997</v>
       </c>
     </row>
@@ -4168,10 +4172,10 @@
       <c r="G123" t="s">
         <v>17</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H123" s="3">
         <v>43401.67083333333</v>
       </c>
-      <c r="I123" s="2">
+      <c r="I123" s="3">
         <v>43401.8125</v>
       </c>
     </row>
@@ -4197,10 +4201,10 @@
       <c r="G124" t="s">
         <v>23</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H124" s="3">
         <v>43396.17083333333</v>
       </c>
-      <c r="I124" s="2">
+      <c r="I124" s="3">
         <v>43396.208333333343</v>
       </c>
     </row>
@@ -4226,10 +4230,10 @@
       <c r="G125" t="s">
         <v>17</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125" s="3">
         <v>43403.787499999999</v>
       </c>
-      <c r="I125" s="2">
+      <c r="I125" s="3">
         <v>43404.058333333327</v>
       </c>
     </row>
@@ -4255,10 +4259,10 @@
       <c r="G126" t="s">
         <v>17</v>
       </c>
-      <c r="H126" s="2">
+      <c r="H126" s="3">
         <v>43404.012499999997</v>
       </c>
-      <c r="I126" s="2">
+      <c r="I126" s="3">
         <v>43404.55</v>
       </c>
     </row>
@@ -4284,10 +4288,10 @@
       <c r="G127" t="s">
         <v>23</v>
       </c>
-      <c r="H127" s="2">
+      <c r="H127" s="3">
         <v>43395.916666666657</v>
       </c>
-      <c r="I127" s="2">
+      <c r="I127" s="3">
         <v>43396.17083333333</v>
       </c>
     </row>
@@ -4313,10 +4317,10 @@
       <c r="G128" t="s">
         <v>17</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H128" s="3">
         <v>43401.120833333327</v>
       </c>
-      <c r="I128" s="2">
+      <c r="I128" s="3">
         <v>43401.208333333343</v>
       </c>
     </row>
@@ -4342,10 +4346,10 @@
       <c r="G129" t="s">
         <v>17</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H129" s="3">
         <v>43401.583333333343</v>
       </c>
-      <c r="I129" s="2">
+      <c r="I129" s="3">
         <v>43402.120833333327</v>
       </c>
     </row>
@@ -4371,10 +4375,10 @@
       <c r="G130" t="s">
         <v>23</v>
       </c>
-      <c r="H130" s="2">
+      <c r="H130" s="3">
         <v>43395.916666666657</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I130" s="3">
         <v>43396.17083333333</v>
       </c>
     </row>
@@ -4400,10 +4404,10 @@
       <c r="G131" t="s">
         <v>17</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H131" s="3">
         <v>43404.145833333343</v>
       </c>
-      <c r="I131" s="2">
+      <c r="I131" s="3">
         <v>43404.445833333331</v>
       </c>
     </row>
@@ -4429,10 +4433,10 @@
       <c r="G132" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H132" s="3">
         <v>43399.887499999997</v>
       </c>
-      <c r="I132" s="2">
+      <c r="I132" s="3">
         <v>43400.495833333327</v>
       </c>
     </row>
@@ -4458,10 +4462,10 @@
       <c r="G133" t="s">
         <v>17</v>
       </c>
-      <c r="H133" s="2">
+      <c r="H133" s="3">
         <v>43404.55</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I133" s="3">
         <v>43405.087500000001</v>
       </c>
     </row>
@@ -4487,10 +4491,10 @@
       <c r="G134" t="s">
         <v>17</v>
       </c>
-      <c r="H134" s="2">
+      <c r="H134" s="3">
         <v>43404.058333333327</v>
       </c>
-      <c r="I134" s="2">
+      <c r="I134" s="3">
         <v>43404.32916666667</v>
       </c>
     </row>
@@ -4516,10 +4520,10 @@
       <c r="G135" t="s">
         <v>17</v>
       </c>
-      <c r="H135" s="2">
+      <c r="H135" s="3">
         <v>43404.32916666667</v>
       </c>
-      <c r="I135" s="2">
+      <c r="I135" s="3">
         <v>43404.6</v>
       </c>
     </row>
@@ -4545,10 +4549,10 @@
       <c r="G136" t="s">
         <v>17</v>
       </c>
-      <c r="H136" s="2">
+      <c r="H136" s="3">
         <v>43402.120833333327</v>
       </c>
-      <c r="I136" s="2">
+      <c r="I136" s="3">
         <v>43402.208333333343</v>
       </c>
     </row>
@@ -4574,10 +4578,10 @@
       <c r="G137" t="s">
         <v>17</v>
       </c>
-      <c r="H137" s="2">
+      <c r="H137" s="3">
         <v>43402.120833333327</v>
       </c>
-      <c r="I137" s="2">
+      <c r="I137" s="3">
         <v>43402.208333333343</v>
       </c>
     </row>
@@ -4603,10 +4607,10 @@
       <c r="G138" t="s">
         <v>17</v>
       </c>
-      <c r="H138" s="2">
+      <c r="H138" s="3">
         <v>43404.012499999997</v>
       </c>
-      <c r="I138" s="2">
+      <c r="I138" s="3">
         <v>43404.55</v>
       </c>
     </row>
@@ -4632,10 +4636,10 @@
       <c r="G139" t="s">
         <v>17</v>
       </c>
-      <c r="H139" s="2">
+      <c r="H139" s="3">
         <v>43404.445833333331</v>
       </c>
-      <c r="I139" s="2">
+      <c r="I139" s="3">
         <v>43404.745833333327</v>
       </c>
     </row>
@@ -4661,10 +4665,10 @@
       <c r="G140" t="s">
         <v>17</v>
       </c>
-      <c r="H140" s="2">
+      <c r="H140" s="3">
         <v>43404.745833333327</v>
       </c>
-      <c r="I140" s="2">
+      <c r="I140" s="3">
         <v>43405.04583333333</v>
       </c>
     </row>
@@ -4690,10 +4694,10 @@
       <c r="G141" t="s">
         <v>17</v>
       </c>
-      <c r="H141" s="2">
+      <c r="H141" s="3">
         <v>43403.208333333343</v>
       </c>
-      <c r="I141" s="2">
+      <c r="I141" s="3">
         <v>43403.29583333333</v>
       </c>
     </row>
@@ -4719,10 +4723,10 @@
       <c r="G142" t="s">
         <v>23</v>
       </c>
-      <c r="H142" s="2">
+      <c r="H142" s="3">
         <v>43396.17083333333</v>
       </c>
-      <c r="I142" s="2">
+      <c r="I142" s="3">
         <v>43396.208333333343</v>
       </c>
     </row>
@@ -4748,10 +4752,10 @@
       <c r="G143" t="s">
         <v>23</v>
       </c>
-      <c r="H143" s="2">
+      <c r="H143" s="3">
         <v>43396.208333333343</v>
       </c>
-      <c r="I143" s="2">
+      <c r="I143" s="3">
         <v>43396.245833333327</v>
       </c>
     </row>
@@ -4777,10 +4781,10 @@
       <c r="G144" t="s">
         <v>23</v>
       </c>
-      <c r="H144" s="2">
+      <c r="H144" s="3">
         <v>43395.916666666657</v>
       </c>
-      <c r="I144" s="2">
+      <c r="I144" s="3">
         <v>43396.17083333333</v>
       </c>
     </row>
@@ -4806,10 +4810,10 @@
       <c r="G145" t="s">
         <v>23</v>
       </c>
-      <c r="H145" s="2">
+      <c r="H145" s="3">
         <v>43405.087500000001</v>
       </c>
-      <c r="I145" s="2">
+      <c r="I145" s="3">
         <v>43405.979166666657</v>
       </c>
     </row>
@@ -4835,10 +4839,10 @@
       <c r="G146" t="s">
         <v>17</v>
       </c>
-      <c r="H146" s="2">
+      <c r="H146" s="3">
         <v>43397.129166666673</v>
       </c>
-      <c r="I146" s="2">
+      <c r="I146" s="3">
         <v>43397.60833333333</v>
       </c>
     </row>
@@ -4864,10 +4868,10 @@
       <c r="G147" t="s">
         <v>17</v>
       </c>
-      <c r="H147" s="2">
+      <c r="H147" s="3">
         <v>43404.55</v>
       </c>
-      <c r="I147" s="2">
+      <c r="I147" s="3">
         <v>43404.637499999997</v>
       </c>
     </row>
@@ -4893,10 +4897,10 @@
       <c r="G148" t="s">
         <v>17</v>
       </c>
-      <c r="H148" s="2">
+      <c r="H148" s="3">
         <v>43398.20416666667</v>
       </c>
-      <c r="I148" s="2">
+      <c r="I148" s="3">
         <v>43398.741666666669</v>
       </c>
     </row>
@@ -4922,10 +4926,10 @@
       <c r="G149" t="s">
         <v>17</v>
       </c>
-      <c r="H149" s="2">
+      <c r="H149" s="3">
         <v>43404.637499999997</v>
       </c>
-      <c r="I149" s="2">
+      <c r="I149" s="3">
         <v>43404.724999999999</v>
       </c>
     </row>
@@ -4951,10 +4955,10 @@
       <c r="G150" t="s">
         <v>23</v>
       </c>
-      <c r="H150" s="2">
+      <c r="H150" s="3">
         <v>43395.916666666657</v>
       </c>
-      <c r="I150" s="2">
+      <c r="I150" s="3">
         <v>43396.17083333333</v>
       </c>
     </row>
@@ -4980,10 +4984,10 @@
       <c r="G151" t="s">
         <v>17</v>
       </c>
-      <c r="H151" s="2">
+      <c r="H151" s="3">
         <v>43405.087500000001</v>
       </c>
-      <c r="I151" s="2">
+      <c r="I151" s="3">
         <v>43405.175000000003</v>
       </c>
     </row>
@@ -5009,10 +5013,10 @@
       <c r="G152" t="s">
         <v>17</v>
       </c>
-      <c r="H152" s="2">
+      <c r="H152" s="3">
         <v>43404.745833333327</v>
       </c>
-      <c r="I152" s="2">
+      <c r="I152" s="3">
         <v>43405.01666666667</v>
       </c>
     </row>
@@ -5038,10 +5042,10 @@
       <c r="G153" t="s">
         <v>17</v>
       </c>
-      <c r="H153" s="2">
+      <c r="H153" s="3">
         <v>43405.979166666657</v>
       </c>
-      <c r="I153" s="2">
+      <c r="I153" s="3">
         <v>43406.51666666667</v>
       </c>
     </row>
@@ -5067,10 +5071,10 @@
       <c r="G154" t="s">
         <v>17</v>
       </c>
-      <c r="H154" s="2">
+      <c r="H154" s="3">
         <v>43405.175000000003</v>
       </c>
-      <c r="I154" s="2">
+      <c r="I154" s="3">
         <v>43405.262499999997</v>
       </c>
     </row>
@@ -5096,10 +5100,10 @@
       <c r="G155" t="s">
         <v>17</v>
       </c>
-      <c r="H155" s="2">
+      <c r="H155" s="3">
         <v>43396.208333333343</v>
       </c>
-      <c r="I155" s="2">
+      <c r="I155" s="3">
         <v>43396.283333333333</v>
       </c>
     </row>
@@ -5125,10 +5129,10 @@
       <c r="G156" t="s">
         <v>17</v>
       </c>
-      <c r="H156" s="2">
+      <c r="H156" s="3">
         <v>43405.04583333333</v>
       </c>
-      <c r="I156" s="2">
+      <c r="I156" s="3">
         <v>43405.345833333333</v>
       </c>
     </row>
@@ -5154,10 +5158,10 @@
       <c r="G157" t="s">
         <v>17</v>
       </c>
-      <c r="H157" s="2">
+      <c r="H157" s="3">
         <v>43405.262499999997</v>
       </c>
-      <c r="I157" s="2">
+      <c r="I157" s="3">
         <v>43405.35</v>
       </c>
     </row>
@@ -5183,10 +5187,10 @@
       <c r="G158" t="s">
         <v>23</v>
       </c>
-      <c r="H158" s="2">
+      <c r="H158" s="3">
         <v>43396.245833333327</v>
       </c>
-      <c r="I158" s="2">
+      <c r="I158" s="3">
         <v>43396.283333333333</v>
       </c>
     </row>
@@ -5212,10 +5216,10 @@
       <c r="G159" t="s">
         <v>23</v>
       </c>
-      <c r="H159" s="2">
+      <c r="H159" s="3">
         <v>43396.283333333333</v>
       </c>
-      <c r="I159" s="2">
+      <c r="I159" s="3">
         <v>43396.320833333331</v>
       </c>
     </row>
@@ -5241,10 +5245,10 @@
       <c r="G160" t="s">
         <v>17</v>
       </c>
-      <c r="H160" s="2">
+      <c r="H160" s="3">
         <v>43405.01666666667</v>
       </c>
-      <c r="I160" s="2">
+      <c r="I160" s="3">
         <v>43405.287499999999</v>
       </c>
     </row>
@@ -5270,10 +5274,10 @@
       <c r="G161" t="s">
         <v>23</v>
       </c>
-      <c r="H161" s="2">
+      <c r="H161" s="3">
         <v>43406.51666666667</v>
       </c>
-      <c r="I161" s="2">
+      <c r="I161" s="3">
         <v>43407.408333333333</v>
       </c>
     </row>
@@ -5299,10 +5303,10 @@
       <c r="G162" t="s">
         <v>23</v>
       </c>
-      <c r="H162" s="2">
+      <c r="H162" s="3">
         <v>43395.916666666657</v>
       </c>
-      <c r="I162" s="2">
+      <c r="I162" s="3">
         <v>43396.17083333333</v>
       </c>
     </row>
@@ -5328,10 +5332,10 @@
       <c r="G163" t="s">
         <v>23</v>
       </c>
-      <c r="H163" s="2">
+      <c r="H163" s="3">
         <v>43405.979166666657</v>
       </c>
-      <c r="I163" s="2">
+      <c r="I163" s="3">
         <v>43406.162499999999</v>
       </c>
     </row>
@@ -5357,10 +5361,10 @@
       <c r="G164" t="s">
         <v>17</v>
       </c>
-      <c r="H164" s="2">
+      <c r="H164" s="3">
         <v>43405.35</v>
       </c>
-      <c r="I164" s="2">
+      <c r="I164" s="3">
         <v>43405.4375</v>
       </c>
     </row>
@@ -5386,10 +5390,10 @@
       <c r="G165" t="s">
         <v>17</v>
       </c>
-      <c r="H165" s="2">
+      <c r="H165" s="3">
         <v>43404.637499999997</v>
       </c>
-      <c r="I165" s="2">
+      <c r="I165" s="3">
         <v>43404.724999999999</v>
       </c>
     </row>
@@ -5415,10 +5419,10 @@
       <c r="G166" t="s">
         <v>17</v>
       </c>
-      <c r="H166" s="2">
+      <c r="H166" s="3">
         <v>43405.287499999999</v>
       </c>
-      <c r="I166" s="2">
+      <c r="I166" s="3">
         <v>43405.558333333327</v>
       </c>
     </row>
@@ -5444,10 +5448,10 @@
       <c r="G167" t="s">
         <v>17</v>
       </c>
-      <c r="H167" s="2">
+      <c r="H167" s="3">
         <v>43405.558333333327</v>
       </c>
-      <c r="I167" s="2">
+      <c r="I167" s="3">
         <v>43405.82916666667</v>
       </c>
     </row>
@@ -5473,10 +5477,10 @@
       <c r="G168" t="s">
         <v>17</v>
       </c>
-      <c r="H168" s="2">
+      <c r="H168" s="3">
         <v>43405.4375</v>
       </c>
-      <c r="I168" s="2">
+      <c r="I168" s="3">
         <v>43405.525000000001</v>
       </c>
     </row>
@@ -5502,10 +5506,10 @@
       <c r="G169" t="s">
         <v>17</v>
       </c>
-      <c r="H169" s="2">
+      <c r="H169" s="3">
         <v>43401.67083333333</v>
       </c>
-      <c r="I169" s="2">
+      <c r="I169" s="3">
         <v>43401.8125</v>
       </c>
     </row>
@@ -5531,10 +5535,10 @@
       <c r="G170" t="s">
         <v>17</v>
       </c>
-      <c r="H170" s="2">
+      <c r="H170" s="3">
         <v>43405.175000000003</v>
       </c>
-      <c r="I170" s="2">
+      <c r="I170" s="3">
         <v>43405.262499999997</v>
       </c>
     </row>
@@ -5560,10 +5564,10 @@
       <c r="G171" t="s">
         <v>23</v>
       </c>
-      <c r="H171" s="2">
+      <c r="H171" s="3">
         <v>43407.408333333333</v>
       </c>
-      <c r="I171" s="2">
+      <c r="I171" s="3">
         <v>43407.591666666667</v>
       </c>
     </row>
@@ -5589,10 +5593,10 @@
       <c r="G172" t="s">
         <v>17</v>
       </c>
-      <c r="H172" s="2">
+      <c r="H172" s="3">
         <v>43405.82916666667</v>
       </c>
-      <c r="I172" s="2">
+      <c r="I172" s="3">
         <v>43406.1</v>
       </c>
     </row>
@@ -5618,10 +5622,10 @@
       <c r="G173" t="s">
         <v>23</v>
       </c>
-      <c r="H173" s="2">
+      <c r="H173" s="3">
         <v>43407.591666666667</v>
       </c>
-      <c r="I173" s="2">
+      <c r="I173" s="3">
         <v>43407.629166666673</v>
       </c>
     </row>
@@ -5647,10 +5651,10 @@
       <c r="G174" t="s">
         <v>17</v>
       </c>
-      <c r="H174" s="2">
+      <c r="H174" s="3">
         <v>43406.51666666667</v>
       </c>
-      <c r="I174" s="2">
+      <c r="I174" s="3">
         <v>43406.604166666657</v>
       </c>
     </row>
@@ -5676,10 +5680,10 @@
       <c r="G175" t="s">
         <v>17</v>
       </c>
-      <c r="H175" s="2">
+      <c r="H175" s="3">
         <v>43405.345833333333</v>
       </c>
-      <c r="I175" s="2">
+      <c r="I175" s="3">
         <v>43405.645833333343</v>
       </c>
     </row>
@@ -5705,10 +5709,10 @@
       <c r="G176" t="s">
         <v>23</v>
       </c>
-      <c r="H176" s="2">
+      <c r="H176" s="3">
         <v>43407.629166666673</v>
       </c>
-      <c r="I176" s="2">
+      <c r="I176" s="3">
         <v>43407.666666666657</v>
       </c>
     </row>
@@ -5734,10 +5738,10 @@
       <c r="G177" t="s">
         <v>23</v>
       </c>
-      <c r="H177" s="2">
+      <c r="H177" s="3">
         <v>43406.51666666667</v>
       </c>
-      <c r="I177" s="2">
+      <c r="I177" s="3">
         <v>43407.408333333333</v>
       </c>
     </row>
@@ -5763,10 +5767,10 @@
       <c r="G178" t="s">
         <v>17</v>
       </c>
-      <c r="H178" s="2">
+      <c r="H178" s="3">
         <v>43407.408333333333</v>
       </c>
-      <c r="I178" s="2">
+      <c r="I178" s="3">
         <v>43407.945833333331</v>
       </c>
     </row>
@@ -5792,10 +5796,10 @@
       <c r="G179" t="s">
         <v>23</v>
       </c>
-      <c r="H179" s="2">
+      <c r="H179" s="3">
         <v>43407.945833333331</v>
       </c>
-      <c r="I179" s="2">
+      <c r="I179" s="3">
         <v>43408.837500000001</v>
       </c>
     </row>
@@ -5821,10 +5825,10 @@
       <c r="G180" t="s">
         <v>17</v>
       </c>
-      <c r="H180" s="2">
+      <c r="H180" s="3">
         <v>43405.645833333343</v>
       </c>
-      <c r="I180" s="2">
+      <c r="I180" s="3">
         <v>43405.945833333331</v>
       </c>
     </row>
@@ -5850,10 +5854,10 @@
       <c r="G181" t="s">
         <v>23</v>
       </c>
-      <c r="H181" s="2">
+      <c r="H181" s="3">
         <v>43408.837500000001</v>
       </c>
-      <c r="I181" s="2">
+      <c r="I181" s="3">
         <v>43409.354166666657</v>
       </c>
     </row>
@@ -5879,10 +5883,10 @@
       <c r="G182" t="s">
         <v>17</v>
       </c>
-      <c r="H182" s="2">
+      <c r="H182" s="3">
         <v>43406.604166666657</v>
       </c>
-      <c r="I182" s="2">
+      <c r="I182" s="3">
         <v>43406.904166666667</v>
       </c>
     </row>
@@ -5908,10 +5912,10 @@
       <c r="G183" t="s">
         <v>17</v>
       </c>
-      <c r="H183" s="2">
+      <c r="H183" s="3">
         <v>43406.904166666667</v>
       </c>
-      <c r="I183" s="2">
+      <c r="I183" s="3">
         <v>43407.20416666667</v>
       </c>
     </row>
@@ -5937,10 +5941,10 @@
       <c r="G184" t="s">
         <v>17</v>
       </c>
-      <c r="H184" s="2">
+      <c r="H184" s="3">
         <v>43405.4375</v>
       </c>
-      <c r="I184" s="2">
+      <c r="I184" s="3">
         <v>43405.525000000001</v>
       </c>
     </row>
@@ -5966,10 +5970,10 @@
       <c r="G185" t="s">
         <v>17</v>
       </c>
-      <c r="H185" s="2">
+      <c r="H185" s="3">
         <v>43407.20416666667</v>
       </c>
-      <c r="I185" s="2">
+      <c r="I185" s="3">
         <v>43407.504166666673</v>
       </c>
     </row>
@@ -5995,10 +5999,10 @@
       <c r="G186" t="s">
         <v>23</v>
       </c>
-      <c r="H186" s="2">
+      <c r="H186" s="3">
         <v>43404.012499999997</v>
       </c>
-      <c r="I186" s="2">
+      <c r="I186" s="3">
         <v>43404.195833333331</v>
       </c>
     </row>
@@ -6024,10 +6028,10 @@
       <c r="G187" t="s">
         <v>17</v>
       </c>
-      <c r="H187" s="2">
+      <c r="H187" s="3">
         <v>43407.945833333331</v>
       </c>
-      <c r="I187" s="2">
+      <c r="I187" s="3">
         <v>43408.033333333333</v>
       </c>
     </row>
@@ -6053,10 +6057,10 @@
       <c r="G188" t="s">
         <v>17</v>
       </c>
-      <c r="H188" s="2">
+      <c r="H188" s="3">
         <v>43408.033333333333</v>
       </c>
-      <c r="I188" s="2">
+      <c r="I188" s="3">
         <v>43408.120833333327</v>
       </c>
     </row>
@@ -6082,10 +6086,10 @@
       <c r="G189" t="s">
         <v>17</v>
       </c>
-      <c r="H189" s="2">
+      <c r="H189" s="3">
         <v>43408.033333333333</v>
       </c>
-      <c r="I189" s="2">
+      <c r="I189" s="3">
         <v>43408.120833333327</v>
       </c>
     </row>
@@ -6111,10 +6115,10 @@
       <c r="G190" t="s">
         <v>17</v>
       </c>
-      <c r="H190" s="2">
+      <c r="H190" s="3">
         <v>43407.945833333331</v>
       </c>
-      <c r="I190" s="2">
+      <c r="I190" s="3">
         <v>43408.033333333333</v>
       </c>
     </row>
@@ -6140,10 +6144,10 @@
       <c r="G191" t="s">
         <v>17</v>
       </c>
-      <c r="H191" s="2">
+      <c r="H191" s="3">
         <v>43407.504166666673</v>
       </c>
-      <c r="I191" s="2">
+      <c r="I191" s="3">
         <v>43407.804166666669</v>
       </c>
     </row>
@@ -6169,10 +6173,10 @@
       <c r="G192" t="s">
         <v>17</v>
       </c>
-      <c r="H192" s="2">
+      <c r="H192" s="3">
         <v>43407.804166666669</v>
       </c>
-      <c r="I192" s="2">
+      <c r="I192" s="3">
         <v>43408.104166666657</v>
       </c>
     </row>
@@ -6198,10 +6202,10 @@
       <c r="G193" t="s">
         <v>17</v>
       </c>
-      <c r="H193" s="2">
+      <c r="H193" s="3">
         <v>43408.104166666657</v>
       </c>
-      <c r="I193" s="2">
+      <c r="I193" s="3">
         <v>43408.404166666667</v>
       </c>
     </row>
@@ -6227,10 +6231,10 @@
       <c r="G194" t="s">
         <v>23</v>
       </c>
-      <c r="H194" s="2">
+      <c r="H194" s="3">
         <v>43407.945833333331</v>
       </c>
-      <c r="I194" s="2">
+      <c r="I194" s="3">
         <v>43408.837500000001</v>
       </c>
     </row>
@@ -6256,10 +6260,10 @@
       <c r="G195" t="s">
         <v>23</v>
       </c>
-      <c r="H195" s="2">
+      <c r="H195" s="3">
         <v>43407.666666666657</v>
       </c>
-      <c r="I195" s="2">
+      <c r="I195" s="3">
         <v>43407.70416666667</v>
       </c>
     </row>
@@ -6285,10 +6289,10 @@
       <c r="G196" t="s">
         <v>23</v>
       </c>
-      <c r="H196" s="2">
+      <c r="H196" s="3">
         <v>43407.70416666667</v>
       </c>
-      <c r="I196" s="2">
+      <c r="I196" s="3">
         <v>43407.887499999997</v>
       </c>
     </row>
@@ -6314,10 +6318,10 @@
       <c r="G197" t="s">
         <v>23</v>
       </c>
-      <c r="H197" s="2">
+      <c r="H197" s="3">
         <v>43408.837500000001</v>
       </c>
-      <c r="I197" s="2">
+      <c r="I197" s="3">
         <v>43409.354166666657</v>
       </c>
     </row>
@@ -6343,10 +6347,10 @@
       <c r="G198" t="s">
         <v>23</v>
       </c>
-      <c r="H198" s="2">
+      <c r="H198" s="3">
         <v>43409.354166666657</v>
       </c>
-      <c r="I198" s="2">
+      <c r="I198" s="3">
         <v>43409.870833333327</v>
       </c>
     </row>
@@ -6372,10 +6376,10 @@
       <c r="G199" t="s">
         <v>17</v>
       </c>
-      <c r="H199" s="2">
+      <c r="H199" s="3">
         <v>43406.1</v>
       </c>
-      <c r="I199" s="2">
+      <c r="I199" s="3">
         <v>43406.370833333327</v>
       </c>
     </row>
@@ -6401,10 +6405,10 @@
       <c r="G200" t="s">
         <v>23</v>
       </c>
-      <c r="H200" s="2">
+      <c r="H200" s="3">
         <v>43407.945833333331</v>
       </c>
-      <c r="I200" s="2">
+      <c r="I200" s="3">
         <v>43408.837500000001</v>
       </c>
     </row>
@@ -6430,10 +6434,10 @@
       <c r="G201" t="s">
         <v>17</v>
       </c>
-      <c r="H201" s="2">
+      <c r="H201" s="3">
         <v>43407.504166666673</v>
       </c>
-      <c r="I201" s="2">
+      <c r="I201" s="3">
         <v>43407.775000000001</v>
       </c>
     </row>
@@ -6459,10 +6463,10 @@
       <c r="G202" t="s">
         <v>17</v>
       </c>
-      <c r="H202" s="2">
+      <c r="H202" s="3">
         <v>43404.55</v>
       </c>
-      <c r="I202" s="2">
+      <c r="I202" s="3">
         <v>43404.637499999997</v>
       </c>
     </row>
@@ -6488,10 +6492,10 @@
       <c r="G203" t="s">
         <v>17</v>
       </c>
-      <c r="H203" s="2">
+      <c r="H203" s="3">
         <v>43407.775000000001</v>
       </c>
-      <c r="I203" s="2">
+      <c r="I203" s="3">
         <v>43408.04583333333</v>
       </c>
     </row>
@@ -6517,10 +6521,10 @@
       <c r="G204" t="s">
         <v>23</v>
       </c>
-      <c r="H204" s="2">
+      <c r="H204" s="3">
         <v>43404.195833333331</v>
       </c>
-      <c r="I204" s="2">
+      <c r="I204" s="3">
         <v>43404.23333333333</v>
       </c>
     </row>
@@ -6546,10 +6550,10 @@
       <c r="G205" t="s">
         <v>17</v>
       </c>
-      <c r="H205" s="2">
+      <c r="H205" s="3">
         <v>43408.120833333327</v>
       </c>
-      <c r="I205" s="2">
+      <c r="I205" s="3">
         <v>43408.208333333343</v>
       </c>
     </row>
@@ -6575,10 +6579,10 @@
       <c r="G206" t="s">
         <v>23</v>
       </c>
-      <c r="H206" s="2">
+      <c r="H206" s="3">
         <v>43408.837500000001</v>
       </c>
-      <c r="I206" s="2">
+      <c r="I206" s="3">
         <v>43409.020833333343</v>
       </c>
     </row>
@@ -6604,10 +6608,10 @@
       <c r="G207" t="s">
         <v>17</v>
       </c>
-      <c r="H207" s="2">
+      <c r="H207" s="3">
         <v>43408.404166666667</v>
       </c>
-      <c r="I207" s="2">
+      <c r="I207" s="3">
         <v>43408.70416666667</v>
       </c>
     </row>
@@ -6633,10 +6637,10 @@
       <c r="G208" t="s">
         <v>17</v>
       </c>
-      <c r="H208" s="2">
+      <c r="H208" s="3">
         <v>43408.208333333343</v>
       </c>
-      <c r="I208" s="2">
+      <c r="I208" s="3">
         <v>43408.29583333333</v>
       </c>
     </row>
@@ -6662,10 +6666,10 @@
       <c r="G209" t="s">
         <v>17</v>
       </c>
-      <c r="H209" s="2">
+      <c r="H209" s="3">
         <v>43397.60833333333</v>
       </c>
-      <c r="I209" s="2">
+      <c r="I209" s="3">
         <v>43398.087500000001</v>
       </c>
     </row>
@@ -6691,10 +6695,10 @@
       <c r="G210" t="s">
         <v>17</v>
       </c>
-      <c r="H210" s="2">
+      <c r="H210" s="3">
         <v>43408.70416666667</v>
       </c>
-      <c r="I210" s="2">
+      <c r="I210" s="3">
         <v>43409.004166666673</v>
       </c>
     </row>
@@ -6720,10 +6724,10 @@
       <c r="G211" t="s">
         <v>17</v>
       </c>
-      <c r="H211" s="2">
+      <c r="H211" s="3">
         <v>43408.29583333333</v>
       </c>
-      <c r="I211" s="2">
+      <c r="I211" s="3">
         <v>43408.383333333331</v>
       </c>
     </row>
@@ -6749,10 +6753,10 @@
       <c r="G212" t="s">
         <v>23</v>
       </c>
-      <c r="H212" s="2">
+      <c r="H212" s="3">
         <v>43409.870833333327</v>
       </c>
-      <c r="I212" s="2">
+      <c r="I212" s="3">
         <v>43410.104166666657</v>
       </c>
     </row>
@@ -6778,10 +6782,10 @@
       <c r="G213" t="s">
         <v>23</v>
       </c>
-      <c r="H213" s="2">
+      <c r="H213" s="3">
         <v>43395.916666666657</v>
       </c>
-      <c r="I213" s="2">
+      <c r="I213" s="3">
         <v>43396.17083333333</v>
       </c>
     </row>
@@ -6807,10 +6811,10 @@
       <c r="G214" t="s">
         <v>23</v>
       </c>
-      <c r="H214" s="2">
+      <c r="H214" s="3">
         <v>43409.870833333327</v>
       </c>
-      <c r="I214" s="2">
+      <c r="I214" s="3">
         <v>43410.104166666657</v>
       </c>
     </row>
@@ -6836,10 +6840,10 @@
       <c r="G215" t="s">
         <v>17</v>
       </c>
-      <c r="H215" s="2">
+      <c r="H215" s="3">
         <v>43408.04583333333</v>
       </c>
-      <c r="I215" s="2">
+      <c r="I215" s="3">
         <v>43408.316666666673</v>
       </c>
     </row>
@@ -6865,10 +6869,10 @@
       <c r="G216" t="s">
         <v>17</v>
       </c>
-      <c r="H216" s="2">
+      <c r="H216" s="3">
         <v>43409.004166666673</v>
       </c>
-      <c r="I216" s="2">
+      <c r="I216" s="3">
         <v>43409.304166666669</v>
       </c>
     </row>
@@ -6894,10 +6898,10 @@
       <c r="G217" t="s">
         <v>17</v>
       </c>
-      <c r="H217" s="2">
+      <c r="H217" s="3">
         <v>43409.304166666669</v>
       </c>
-      <c r="I217" s="2">
+      <c r="I217" s="3">
         <v>43409.604166666657</v>
       </c>
     </row>
@@ -6923,10 +6927,10 @@
       <c r="G218" t="s">
         <v>23</v>
       </c>
-      <c r="H218" s="2">
+      <c r="H218" s="3">
         <v>43404.23333333333</v>
       </c>
-      <c r="I218" s="2">
+      <c r="I218" s="3">
         <v>43404.270833333343</v>
       </c>
     </row>
@@ -6952,10 +6956,10 @@
       <c r="G219" t="s">
         <v>23</v>
       </c>
-      <c r="H219" s="2">
+      <c r="H219" s="3">
         <v>43407.945833333331</v>
       </c>
-      <c r="I219" s="2">
+      <c r="I219" s="3">
         <v>43408.837500000001</v>
       </c>
     </row>
@@ -6981,10 +6985,10 @@
       <c r="G220" t="s">
         <v>17</v>
       </c>
-      <c r="H220" s="2">
+      <c r="H220" s="3">
         <v>43408.29583333333</v>
       </c>
-      <c r="I220" s="2">
+      <c r="I220" s="3">
         <v>43408.383333333331</v>
       </c>
     </row>
@@ -7010,10 +7014,10 @@
       <c r="G221" t="s">
         <v>17</v>
       </c>
-      <c r="H221" s="2">
+      <c r="H221" s="3">
         <v>43402.8125</v>
       </c>
-      <c r="I221" s="2">
+      <c r="I221" s="3">
         <v>43403.4375</v>
       </c>
     </row>
@@ -7039,10 +7043,10 @@
       <c r="G222" t="s">
         <v>17</v>
       </c>
-      <c r="H222" s="2">
+      <c r="H222" s="3">
         <v>43409.604166666657</v>
       </c>
-      <c r="I222" s="2">
+      <c r="I222" s="3">
         <v>43409.904166666667</v>
       </c>
     </row>
@@ -7068,10 +7072,10 @@
       <c r="G223" t="s">
         <v>17</v>
       </c>
-      <c r="H223" s="2">
+      <c r="H223" s="3">
         <v>43408.208333333343</v>
       </c>
-      <c r="I223" s="2">
+      <c r="I223" s="3">
         <v>43408.29583333333</v>
       </c>
     </row>
@@ -7097,10 +7101,10 @@
       <c r="G224" t="s">
         <v>17</v>
       </c>
-      <c r="H224" s="2">
+      <c r="H224" s="3">
         <v>43408.316666666673</v>
       </c>
-      <c r="I224" s="2">
+      <c r="I224" s="3">
         <v>43408.587500000001</v>
       </c>
     </row>
@@ -7126,10 +7130,10 @@
       <c r="G225" t="s">
         <v>17</v>
       </c>
-      <c r="H225" s="2">
+      <c r="H225" s="3">
         <v>43408.29583333333</v>
       </c>
-      <c r="I225" s="2">
+      <c r="I225" s="3">
         <v>43408.775000000001</v>
       </c>
     </row>
@@ -7155,10 +7159,10 @@
       <c r="G226" t="s">
         <v>17</v>
       </c>
-      <c r="H226" s="2">
+      <c r="H226" s="3">
         <v>43409.304166666669</v>
       </c>
-      <c r="I226" s="2">
+      <c r="I226" s="3">
         <v>43409.574999999997</v>
       </c>
     </row>
@@ -7184,10 +7188,10 @@
       <c r="G227" t="s">
         <v>17</v>
       </c>
-      <c r="H227" s="2">
+      <c r="H227" s="3">
         <v>43410.116666666669</v>
       </c>
-      <c r="I227" s="2">
+      <c r="I227" s="3">
         <v>43410.20416666667</v>
       </c>
     </row>
@@ -7213,10 +7217,10 @@
       <c r="G228" t="s">
         <v>17</v>
       </c>
-      <c r="H228" s="2">
+      <c r="H228" s="3">
         <v>43409.574999999997</v>
       </c>
-      <c r="I228" s="2">
+      <c r="I228" s="3">
         <v>43409.845833333333</v>
       </c>
     </row>
@@ -7242,10 +7246,10 @@
       <c r="G229" t="s">
         <v>17</v>
       </c>
-      <c r="H229" s="2">
+      <c r="H229" s="3">
         <v>43409.020833333343</v>
       </c>
-      <c r="I229" s="2">
+      <c r="I229" s="3">
         <v>43409.262499999997</v>
       </c>
     </row>
@@ -7271,10 +7275,10 @@
       <c r="G230" t="s">
         <v>17</v>
       </c>
-      <c r="H230" s="2">
+      <c r="H230" s="3">
         <v>43409.845833333333</v>
       </c>
-      <c r="I230" s="2">
+      <c r="I230" s="3">
         <v>43410.116666666669</v>
       </c>
     </row>
@@ -7300,10 +7304,10 @@
       <c r="G231" t="s">
         <v>23</v>
       </c>
-      <c r="H231" s="2">
+      <c r="H231" s="3">
         <v>43409.262499999997</v>
       </c>
-      <c r="I231" s="2">
+      <c r="I231" s="3">
         <v>43409.445833333331</v>
       </c>
     </row>
@@ -7329,10 +7333,10 @@
       <c r="G232" t="s">
         <v>17</v>
       </c>
-      <c r="H232" s="2">
+      <c r="H232" s="3">
         <v>43409.904166666667</v>
       </c>
-      <c r="I232" s="2">
+      <c r="I232" s="3">
         <v>43410.20416666667</v>
       </c>
     </row>
@@ -7358,10 +7362,10 @@
       <c r="G233" t="s">
         <v>17</v>
       </c>
-      <c r="H233" s="2">
+      <c r="H233" s="3">
         <v>43408.775000000001</v>
       </c>
-      <c r="I233" s="2">
+      <c r="I233" s="3">
         <v>43409.254166666673</v>
       </c>
     </row>
@@ -7387,10 +7391,10 @@
       <c r="G234" t="s">
         <v>17</v>
       </c>
-      <c r="H234" s="2">
+      <c r="H234" s="3">
         <v>43408.775000000001</v>
       </c>
-      <c r="I234" s="2">
+      <c r="I234" s="3">
         <v>43409.254166666673</v>
       </c>
     </row>
@@ -7416,10 +7420,10 @@
       <c r="G235" t="s">
         <v>23</v>
       </c>
-      <c r="H235" s="2">
+      <c r="H235" s="3">
         <v>43405.087500000001</v>
       </c>
-      <c r="I235" s="2">
+      <c r="I235" s="3">
         <v>43405.979166666657</v>
       </c>
     </row>
@@ -7445,10 +7449,10 @@
       <c r="G236" t="s">
         <v>17</v>
       </c>
-      <c r="H236" s="2">
+      <c r="H236" s="3">
         <v>43411.20416666667</v>
       </c>
-      <c r="I236" s="2">
+      <c r="I236" s="3">
         <v>43411.291666666657</v>
       </c>
     </row>
@@ -7474,10 +7478,10 @@
       <c r="G237" t="s">
         <v>17</v>
       </c>
-      <c r="H237" s="2">
+      <c r="H237" s="3">
         <v>43411.20416666667</v>
       </c>
-      <c r="I237" s="2">
+      <c r="I237" s="3">
         <v>43411.474999999999</v>
       </c>
     </row>
@@ -7503,10 +7507,10 @@
       <c r="G238" t="s">
         <v>23</v>
       </c>
-      <c r="H238" s="2">
+      <c r="H238" s="3">
         <v>43409.354166666657</v>
       </c>
-      <c r="I238" s="2">
+      <c r="I238" s="3">
         <v>43409.870833333327</v>
       </c>
     </row>
@@ -7532,10 +7536,10 @@
       <c r="G239" t="s">
         <v>17</v>
       </c>
-      <c r="H239" s="2">
+      <c r="H239" s="3">
         <v>43408.775000000001</v>
       </c>
-      <c r="I239" s="2">
+      <c r="I239" s="3">
         <v>43409.254166666673</v>
       </c>
     </row>
@@ -7561,10 +7565,10 @@
       <c r="G240" t="s">
         <v>17</v>
       </c>
-      <c r="H240" s="2">
+      <c r="H240" s="3">
         <v>43411.474999999999</v>
       </c>
-      <c r="I240" s="2">
+      <c r="I240" s="3">
         <v>43411.745833333327</v>
       </c>
     </row>
@@ -7590,10 +7594,10 @@
       <c r="G241" t="s">
         <v>23</v>
       </c>
-      <c r="H241" s="2">
+      <c r="H241" s="3">
         <v>43409.445833333331</v>
       </c>
-      <c r="I241" s="2">
+      <c r="I241" s="3">
         <v>43409.48333333333</v>
       </c>
     </row>
@@ -7619,10 +7623,10 @@
       <c r="G242" t="s">
         <v>17</v>
       </c>
-      <c r="H242" s="2">
+      <c r="H242" s="3">
         <v>43404.270833333343</v>
       </c>
-      <c r="I242" s="2">
+      <c r="I242" s="3">
         <v>43404.512499999997</v>
       </c>
     </row>
@@ -7648,10 +7652,10 @@
       <c r="G243" t="s">
         <v>17</v>
       </c>
-      <c r="H243" s="2">
+      <c r="H243" s="3">
         <v>43411.291666666657</v>
       </c>
-      <c r="I243" s="2">
+      <c r="I243" s="3">
         <v>43411.379166666673</v>
       </c>
     </row>
@@ -7677,10 +7681,10 @@
       <c r="G244" t="s">
         <v>23</v>
       </c>
-      <c r="H244" s="2">
+      <c r="H244" s="3">
         <v>43410.870833333327</v>
       </c>
-      <c r="I244" s="2">
+      <c r="I244" s="3">
         <v>43411.387499999997</v>
       </c>
     </row>
@@ -7706,10 +7710,10 @@
       <c r="G245" t="s">
         <v>17</v>
       </c>
-      <c r="H245" s="2">
+      <c r="H245" s="3">
         <v>43408.775000000001</v>
       </c>
-      <c r="I245" s="2">
+      <c r="I245" s="3">
         <v>43409.254166666673</v>
       </c>
     </row>
@@ -7735,10 +7739,10 @@
       <c r="G246" t="s">
         <v>17</v>
       </c>
-      <c r="H246" s="2">
+      <c r="H246" s="3">
         <v>43411.20416666667</v>
       </c>
-      <c r="I246" s="2">
+      <c r="I246" s="3">
         <v>43411.291666666657</v>
       </c>
     </row>
@@ -7764,10 +7768,10 @@
       <c r="G247" t="s">
         <v>23</v>
       </c>
-      <c r="H247" s="2">
+      <c r="H247" s="3">
         <v>43411.387499999997</v>
       </c>
-      <c r="I247" s="2">
+      <c r="I247" s="3">
         <v>43412.279166666667</v>
       </c>
     </row>
@@ -7793,10 +7797,10 @@
       <c r="G248" t="s">
         <v>23</v>
       </c>
-      <c r="H248" s="2">
+      <c r="H248" s="3">
         <v>43412.279166666667</v>
       </c>
-      <c r="I248" s="2">
+      <c r="I248" s="3">
         <v>43413.283333333333</v>
       </c>
     </row>
@@ -7822,10 +7826,10 @@
       <c r="G249" t="s">
         <v>17</v>
       </c>
-      <c r="H249" s="2">
+      <c r="H249" s="3">
         <v>43411.745833333327</v>
       </c>
-      <c r="I249" s="2">
+      <c r="I249" s="3">
         <v>43412.01666666667</v>
       </c>
     </row>
@@ -7851,10 +7855,10 @@
       <c r="G250" t="s">
         <v>17</v>
       </c>
-      <c r="H250" s="2">
+      <c r="H250" s="3">
         <v>43411.291666666657</v>
       </c>
-      <c r="I250" s="2">
+      <c r="I250" s="3">
         <v>43411.770833333343</v>
       </c>
     </row>
@@ -7880,10 +7884,10 @@
       <c r="G251" t="s">
         <v>17</v>
       </c>
-      <c r="H251" s="2">
+      <c r="H251" s="3">
         <v>43411.379166666673</v>
       </c>
-      <c r="I251" s="2">
+      <c r="I251" s="3">
         <v>43411.520833333343</v>
       </c>
     </row>
@@ -7909,10 +7913,10 @@
       <c r="G252" t="s">
         <v>23</v>
       </c>
-      <c r="H252" s="2">
+      <c r="H252" s="3">
         <v>43404.512499999997</v>
       </c>
-      <c r="I252" s="2">
+      <c r="I252" s="3">
         <v>43404.55</v>
       </c>
     </row>
@@ -7938,10 +7942,10 @@
       <c r="G253" t="s">
         <v>17</v>
       </c>
-      <c r="H253" s="2">
+      <c r="H253" s="3">
         <v>43409.254166666673</v>
       </c>
-      <c r="I253" s="2">
+      <c r="I253" s="3">
         <v>43409.495833333327</v>
       </c>
     </row>
@@ -7967,10 +7971,10 @@
       <c r="G254" t="s">
         <v>23</v>
       </c>
-      <c r="H254" s="2">
+      <c r="H254" s="3">
         <v>43412.279166666667</v>
       </c>
-      <c r="I254" s="2">
+      <c r="I254" s="3">
         <v>43413.283333333333</v>
       </c>
     </row>
@@ -7996,10 +8000,10 @@
       <c r="G255" t="s">
         <v>17</v>
       </c>
-      <c r="H255" s="2">
+      <c r="H255" s="3">
         <v>43411.291666666657</v>
       </c>
-      <c r="I255" s="2">
+      <c r="I255" s="3">
         <v>43411.770833333343</v>
       </c>
     </row>
@@ -8025,10 +8029,10 @@
       <c r="G256" t="s">
         <v>17</v>
       </c>
-      <c r="H256" s="2">
+      <c r="H256" s="3">
         <v>43409.48333333333</v>
       </c>
-      <c r="I256" s="2">
+      <c r="I256" s="3">
         <v>43409.724999999999</v>
       </c>
     </row>
@@ -8054,10 +8058,10 @@
       <c r="G257" t="s">
         <v>17</v>
       </c>
-      <c r="H257" s="2">
+      <c r="H257" s="3">
         <v>43411.520833333343</v>
       </c>
-      <c r="I257" s="2">
+      <c r="I257" s="3">
         <v>43411.60833333333</v>
       </c>
     </row>
@@ -8083,10 +8087,10 @@
       <c r="G258" t="s">
         <v>23</v>
       </c>
-      <c r="H258" s="2">
+      <c r="H258" s="3">
         <v>43412.279166666667</v>
       </c>
-      <c r="I258" s="2">
+      <c r="I258" s="3">
         <v>43413.283333333333</v>
       </c>
     </row>
@@ -8112,10 +8116,10 @@
       <c r="G259" t="s">
         <v>23</v>
       </c>
-      <c r="H259" s="2">
+      <c r="H259" s="3">
         <v>43411.387499999997</v>
       </c>
-      <c r="I259" s="2">
+      <c r="I259" s="3">
         <v>43412.279166666667</v>
       </c>
     </row>
@@ -8141,10 +8145,10 @@
       <c r="G260" t="s">
         <v>17</v>
       </c>
-      <c r="H260" s="2">
+      <c r="H260" s="3">
         <v>43411.291666666657</v>
       </c>
-      <c r="I260" s="2">
+      <c r="I260" s="3">
         <v>43411.770833333343</v>
       </c>
     </row>
@@ -8170,10 +8174,10 @@
       <c r="G261" t="s">
         <v>17</v>
       </c>
-      <c r="H261" s="2">
+      <c r="H261" s="3">
         <v>43411.20416666667</v>
       </c>
-      <c r="I261" s="2">
+      <c r="I261" s="3">
         <v>43411.504166666673</v>
       </c>
     </row>
@@ -8199,10 +8203,10 @@
       <c r="G262" t="s">
         <v>17</v>
       </c>
-      <c r="H262" s="2">
+      <c r="H262" s="3">
         <v>43411.60833333333</v>
       </c>
-      <c r="I262" s="2">
+      <c r="I262" s="3">
         <v>43411.75</v>
       </c>
     </row>
@@ -8228,10 +8232,10 @@
       <c r="G263" t="s">
         <v>23</v>
       </c>
-      <c r="H263" s="2">
+      <c r="H263" s="3">
         <v>43409.495833333327</v>
       </c>
-      <c r="I263" s="2">
+      <c r="I263" s="3">
         <v>43409.679166666669</v>
       </c>
     </row>
@@ -8257,10 +8261,10 @@
       <c r="G264" t="s">
         <v>17</v>
       </c>
-      <c r="H264" s="2">
+      <c r="H264" s="3">
         <v>43411.291666666657</v>
       </c>
-      <c r="I264" s="2">
+      <c r="I264" s="3">
         <v>43411.770833333343</v>
       </c>
     </row>
@@ -8286,10 +8290,10 @@
       <c r="G265" t="s">
         <v>17</v>
       </c>
-      <c r="H265" s="2">
+      <c r="H265" s="3">
         <v>43411.504166666673</v>
       </c>
-      <c r="I265" s="2">
+      <c r="I265" s="3">
         <v>43411.804166666669</v>
       </c>
     </row>
@@ -8315,10 +8319,10 @@
       <c r="G266" t="s">
         <v>23</v>
       </c>
-      <c r="H266" s="2">
+      <c r="H266" s="3">
         <v>43410.870833333327</v>
       </c>
-      <c r="I266" s="2">
+      <c r="I266" s="3">
         <v>43411.387499999997</v>
       </c>
     </row>
@@ -8344,10 +8348,10 @@
       <c r="G267" t="s">
         <v>17</v>
       </c>
-      <c r="H267" s="2">
+      <c r="H267" s="3">
         <v>43411.291666666657</v>
       </c>
-      <c r="I267" s="2">
+      <c r="I267" s="3">
         <v>43411.770833333343</v>
       </c>
     </row>
@@ -8373,10 +8377,10 @@
       <c r="G268" t="s">
         <v>23</v>
       </c>
-      <c r="H268" s="2">
+      <c r="H268" s="3">
         <v>43413.283333333333</v>
       </c>
-      <c r="I268" s="2">
+      <c r="I268" s="3">
         <v>43413.495833333327</v>
       </c>
     </row>
@@ -8402,10 +8406,10 @@
       <c r="G269" t="s">
         <v>17</v>
       </c>
-      <c r="H269" s="2">
+      <c r="H269" s="3">
         <v>43412.01666666667</v>
       </c>
-      <c r="I269" s="2">
+      <c r="I269" s="3">
         <v>43412.287499999999</v>
       </c>
     </row>
@@ -8431,10 +8435,10 @@
       <c r="G270" t="s">
         <v>17</v>
       </c>
-      <c r="H270" s="2">
+      <c r="H270" s="3">
         <v>43412.01666666667</v>
       </c>
-      <c r="I270" s="2">
+      <c r="I270" s="3">
         <v>43412.104166666657</v>
       </c>
     </row>
@@ -8460,10 +8464,10 @@
       <c r="G271" t="s">
         <v>17</v>
       </c>
-      <c r="H271" s="2">
+      <c r="H271" s="3">
         <v>43412.287499999999</v>
       </c>
-      <c r="I271" s="2">
+      <c r="I271" s="3">
         <v>43412.375</v>
       </c>
     </row>
@@ -8489,10 +8493,10 @@
       <c r="G272" t="s">
         <v>17</v>
       </c>
-      <c r="H272" s="2">
+      <c r="H272" s="3">
         <v>43412.287499999999</v>
       </c>
-      <c r="I272" s="2">
+      <c r="I272" s="3">
         <v>43412.558333333327</v>
       </c>
     </row>
@@ -8518,10 +8522,10 @@
       <c r="G273" t="s">
         <v>17</v>
       </c>
-      <c r="H273" s="2">
+      <c r="H273" s="3">
         <v>43411.291666666657</v>
       </c>
-      <c r="I273" s="2">
+      <c r="I273" s="3">
         <v>43411.379166666673</v>
       </c>
     </row>
@@ -8547,10 +8551,10 @@
       <c r="G274" t="s">
         <v>17</v>
       </c>
-      <c r="H274" s="2">
+      <c r="H274" s="3">
         <v>43409.679166666669</v>
       </c>
-      <c r="I274" s="2">
+      <c r="I274" s="3">
         <v>43409.92083333333</v>
       </c>
     </row>
@@ -8576,10 +8580,10 @@
       <c r="G275" t="s">
         <v>17</v>
       </c>
-      <c r="H275" s="2">
+      <c r="H275" s="3">
         <v>43412.558333333327</v>
       </c>
-      <c r="I275" s="2">
+      <c r="I275" s="3">
         <v>43412.82916666667</v>
       </c>
     </row>
@@ -8605,10 +8609,10 @@
       <c r="G276" t="s">
         <v>23</v>
       </c>
-      <c r="H276" s="2">
+      <c r="H276" s="3">
         <v>43413.495833333327</v>
       </c>
-      <c r="I276" s="2">
+      <c r="I276" s="3">
         <v>43414.070833333331</v>
       </c>
     </row>
@@ -8634,10 +8638,10 @@
       <c r="G277" t="s">
         <v>17</v>
       </c>
-      <c r="H277" s="2">
+      <c r="H277" s="3">
         <v>43411.291666666657</v>
       </c>
-      <c r="I277" s="2">
+      <c r="I277" s="3">
         <v>43411.770833333343</v>
       </c>
     </row>
@@ -8663,10 +8667,10 @@
       <c r="G278" t="s">
         <v>17</v>
       </c>
-      <c r="H278" s="2">
+      <c r="H278" s="3">
         <v>43411.770833333343</v>
       </c>
-      <c r="I278" s="2">
+      <c r="I278" s="3">
         <v>43412.25</v>
       </c>
     </row>
@@ -8692,10 +8696,10 @@
       <c r="G279" t="s">
         <v>17</v>
       </c>
-      <c r="H279" s="2">
+      <c r="H279" s="3">
         <v>43411.770833333343</v>
       </c>
-      <c r="I279" s="2">
+      <c r="I279" s="3">
         <v>43412.25</v>
       </c>
     </row>
@@ -8721,10 +8725,10 @@
       <c r="G280" t="s">
         <v>17</v>
       </c>
-      <c r="H280" s="2">
+      <c r="H280" s="3">
         <v>43409.92083333333</v>
       </c>
-      <c r="I280" s="2">
+      <c r="I280" s="3">
         <v>43410.162499999999</v>
       </c>
     </row>
@@ -8750,10 +8754,10 @@
       <c r="G281" t="s">
         <v>17</v>
       </c>
-      <c r="H281" s="2">
+      <c r="H281" s="3">
         <v>43412.375</v>
       </c>
-      <c r="I281" s="2">
+      <c r="I281" s="3">
         <v>43412.854166666657</v>
       </c>
     </row>
@@ -8779,10 +8783,10 @@
       <c r="G282" t="s">
         <v>23</v>
       </c>
-      <c r="H282" s="2">
+      <c r="H282" s="3">
         <v>43411.162499999999</v>
       </c>
-      <c r="I282" s="2">
+      <c r="I282" s="3">
         <v>43411.345833333333</v>
       </c>
     </row>
@@ -8808,10 +8812,10 @@
       <c r="G283" t="s">
         <v>23</v>
       </c>
-      <c r="H283" s="2">
+      <c r="H283" s="3">
         <v>43413.495833333327</v>
       </c>
-      <c r="I283" s="2">
+      <c r="I283" s="3">
         <v>43413.679166666669</v>
       </c>
     </row>
@@ -8837,10 +8841,10 @@
       <c r="G284" t="s">
         <v>17</v>
       </c>
-      <c r="H284" s="2">
+      <c r="H284" s="3">
         <v>43411.770833333343</v>
       </c>
-      <c r="I284" s="2">
+      <c r="I284" s="3">
         <v>43412.012499999997</v>
       </c>
     </row>
@@ -8866,10 +8870,10 @@
       <c r="G285" t="s">
         <v>17</v>
       </c>
-      <c r="H285" s="2">
+      <c r="H285" s="3">
         <v>43412.82916666667</v>
       </c>
-      <c r="I285" s="2">
+      <c r="I285" s="3">
         <v>43413.1</v>
       </c>
     </row>
@@ -8895,10 +8899,10 @@
       <c r="G286" t="s">
         <v>23</v>
       </c>
-      <c r="H286" s="2">
+      <c r="H286" s="3">
         <v>43412.375</v>
       </c>
-      <c r="I286" s="2">
+      <c r="I286" s="3">
         <v>43412.60833333333</v>
       </c>
     </row>
@@ -8924,10 +8928,10 @@
       <c r="G287" t="s">
         <v>17</v>
       </c>
-      <c r="H287" s="2">
+      <c r="H287" s="3">
         <v>43411.379166666673</v>
       </c>
-      <c r="I287" s="2">
+      <c r="I287" s="3">
         <v>43411.520833333343</v>
       </c>
     </row>
@@ -8953,10 +8957,10 @@
       <c r="G288" t="s">
         <v>17</v>
       </c>
-      <c r="H288" s="2">
+      <c r="H288" s="3">
         <v>43411.60833333333</v>
       </c>
-      <c r="I288" s="2">
+      <c r="I288" s="3">
         <v>43411.75</v>
       </c>
     </row>
@@ -8982,10 +8986,10 @@
       <c r="G289" t="s">
         <v>23</v>
       </c>
-      <c r="H289" s="2">
+      <c r="H289" s="3">
         <v>43395.916666666657</v>
       </c>
-      <c r="I289" s="2">
+      <c r="I289" s="3">
         <v>43396.17083333333</v>
       </c>
     </row>
@@ -9011,10 +9015,10 @@
       <c r="G290" t="s">
         <v>17</v>
       </c>
-      <c r="H290" s="2">
+      <c r="H290" s="3">
         <v>43411.520833333343</v>
       </c>
-      <c r="I290" s="2">
+      <c r="I290" s="3">
         <v>43412.145833333343</v>
       </c>
     </row>
@@ -9040,10 +9044,10 @@
       <c r="G291" t="s">
         <v>17</v>
       </c>
-      <c r="H291" s="2">
+      <c r="H291" s="3">
         <v>43411.75</v>
       </c>
-      <c r="I291" s="2">
+      <c r="I291" s="3">
         <v>43412.375</v>
       </c>
     </row>
@@ -9069,10 +9073,10 @@
       <c r="G292" t="s">
         <v>17</v>
       </c>
-      <c r="H292" s="2">
+      <c r="H292" s="3">
         <v>43412.375</v>
       </c>
-      <c r="I292" s="2">
+      <c r="I292" s="3">
         <v>43412.854166666657</v>
       </c>
     </row>
@@ -9098,10 +9102,10 @@
       <c r="G293" t="s">
         <v>17</v>
       </c>
-      <c r="H293" s="2">
+      <c r="H293" s="3">
         <v>43413.1</v>
       </c>
-      <c r="I293" s="2">
+      <c r="I293" s="3">
         <v>43413.370833333327</v>
       </c>
     </row>
@@ -9127,10 +9131,10 @@
       <c r="G294" t="s">
         <v>17</v>
       </c>
-      <c r="H294" s="2">
+      <c r="H294" s="3">
         <v>43412.287499999999</v>
       </c>
-      <c r="I294" s="2">
+      <c r="I294" s="3">
         <v>43412.375</v>
       </c>
     </row>
@@ -9156,10 +9160,10 @@
       <c r="G295" t="s">
         <v>17</v>
       </c>
-      <c r="H295" s="2">
+      <c r="H295" s="3">
         <v>43413.1</v>
       </c>
-      <c r="I295" s="2">
+      <c r="I295" s="3">
         <v>43413.1875</v>
       </c>
     </row>
@@ -9185,10 +9189,10 @@
       <c r="G296" t="s">
         <v>17</v>
       </c>
-      <c r="H296" s="2">
+      <c r="H296" s="3">
         <v>43412.854166666657</v>
       </c>
-      <c r="I296" s="2">
+      <c r="I296" s="3">
         <v>43413.129166666673</v>
       </c>
     </row>
@@ -9214,10 +9218,10 @@
       <c r="G297" t="s">
         <v>23</v>
       </c>
-      <c r="H297" s="2">
+      <c r="H297" s="3">
         <v>43414.070833333331</v>
       </c>
-      <c r="I297" s="2">
+      <c r="I297" s="3">
         <v>43414.587500000001</v>
       </c>
     </row>
@@ -9243,10 +9247,10 @@
       <c r="G298" t="s">
         <v>17</v>
       </c>
-      <c r="H298" s="2">
+      <c r="H298" s="3">
         <v>43412.375</v>
       </c>
-      <c r="I298" s="2">
+      <c r="I298" s="3">
         <v>43412.854166666657</v>
       </c>
     </row>
@@ -9272,10 +9276,10 @@
       <c r="G299" t="s">
         <v>17</v>
       </c>
-      <c r="H299" s="2">
+      <c r="H299" s="3">
         <v>43413.679166666669</v>
       </c>
-      <c r="I299" s="2">
+      <c r="I299" s="3">
         <v>43413.92083333333</v>
       </c>
     </row>
@@ -9301,10 +9305,10 @@
       <c r="G300" t="s">
         <v>17</v>
       </c>
-      <c r="H300" s="2">
+      <c r="H300" s="3">
         <v>43413.195833333331</v>
       </c>
-      <c r="I300" s="2">
+      <c r="I300" s="3">
         <v>43413.283333333333</v>
       </c>
     </row>
@@ -9330,10 +9334,10 @@
       <c r="G301" t="s">
         <v>17</v>
       </c>
-      <c r="H301" s="2">
+      <c r="H301" s="3">
         <v>43398.45</v>
       </c>
-      <c r="I301" s="2">
+      <c r="I301" s="3">
         <v>43398.470833333333</v>
       </c>
     </row>
@@ -9359,10 +9363,10 @@
       <c r="G302" t="s">
         <v>17</v>
       </c>
-      <c r="H302" s="2">
+      <c r="H302" s="3">
         <v>43413.129166666673</v>
       </c>
-      <c r="I302" s="2">
+      <c r="I302" s="3">
         <v>43413.404166666667</v>
       </c>
     </row>
@@ -9388,10 +9392,10 @@
       <c r="G303" t="s">
         <v>17</v>
       </c>
-      <c r="H303" s="2">
+      <c r="H303" s="3">
         <v>43412.5</v>
       </c>
-      <c r="I303" s="2">
+      <c r="I303" s="3">
         <v>43413.125</v>
       </c>
     </row>
@@ -9417,10 +9421,10 @@
       <c r="G304" t="s">
         <v>23</v>
       </c>
-      <c r="H304" s="2">
+      <c r="H304" s="3">
         <v>43413.404166666667</v>
       </c>
-      <c r="I304" s="2">
+      <c r="I304" s="3">
         <v>43413.587500000001</v>
       </c>
     </row>
@@ -9446,10 +9450,10 @@
       <c r="G305" t="s">
         <v>17</v>
       </c>
-      <c r="H305" s="2">
+      <c r="H305" s="3">
         <v>43412.375</v>
       </c>
-      <c r="I305" s="2">
+      <c r="I305" s="3">
         <v>43412.854166666657</v>
       </c>
     </row>
@@ -9475,10 +9479,10 @@
       <c r="G306" t="s">
         <v>17</v>
       </c>
-      <c r="H306" s="2">
+      <c r="H306" s="3">
         <v>43413.370833333327</v>
       </c>
-      <c r="I306" s="2">
+      <c r="I306" s="3">
         <v>43413.458333333343</v>
       </c>
     </row>
@@ -9504,10 +9508,10 @@
       <c r="G307" t="s">
         <v>17</v>
       </c>
-      <c r="H307" s="2">
+      <c r="H307" s="3">
         <v>43413.370833333327</v>
       </c>
-      <c r="I307" s="2">
+      <c r="I307" s="3">
         <v>43413.458333333343</v>
       </c>
     </row>
@@ -9533,10 +9537,10 @@
       <c r="G308" t="s">
         <v>17</v>
       </c>
-      <c r="H308" s="2">
+      <c r="H308" s="3">
         <v>43413.587500000001</v>
       </c>
-      <c r="I308" s="2">
+      <c r="I308" s="3">
         <v>43413.82916666667</v>
       </c>
     </row>
@@ -9562,10 +9566,10 @@
       <c r="G309" t="s">
         <v>17</v>
       </c>
-      <c r="H309" s="2">
+      <c r="H309" s="3">
         <v>43413.92083333333</v>
       </c>
-      <c r="I309" s="2">
+      <c r="I309" s="3">
         <v>43414.162499999999</v>
       </c>
     </row>
@@ -9591,10 +9595,10 @@
       <c r="G310" t="s">
         <v>17</v>
       </c>
-      <c r="H310" s="2">
+      <c r="H310" s="3">
         <v>43412.375</v>
       </c>
-      <c r="I310" s="2">
+      <c r="I310" s="3">
         <v>43412.395833333343</v>
       </c>
     </row>
@@ -9620,10 +9624,10 @@
       <c r="G311" t="s">
         <v>17</v>
       </c>
-      <c r="H311" s="2">
+      <c r="H311" s="3">
         <v>43414.162499999999</v>
       </c>
-      <c r="I311" s="2">
+      <c r="I311" s="3">
         <v>43414.404166666667</v>
       </c>
     </row>
@@ -9649,10 +9653,10 @@
       <c r="G312" t="s">
         <v>17</v>
       </c>
-      <c r="H312" s="2">
+      <c r="H312" s="3">
         <v>43413.458333333343</v>
       </c>
-      <c r="I312" s="2">
+      <c r="I312" s="3">
         <v>43413.599999999999</v>
       </c>
     </row>
@@ -9678,10 +9682,10 @@
       <c r="G313" t="s">
         <v>23</v>
       </c>
-      <c r="H313" s="2">
+      <c r="H313" s="3">
         <v>43414.070833333331</v>
       </c>
-      <c r="I313" s="2">
+      <c r="I313" s="3">
         <v>43414.587500000001</v>
       </c>
     </row>
@@ -9707,10 +9711,10 @@
       <c r="G314" t="s">
         <v>17</v>
       </c>
-      <c r="H314" s="2">
+      <c r="H314" s="3">
         <v>43413.599999999999</v>
       </c>
-      <c r="I314" s="2">
+      <c r="I314" s="3">
         <v>43413.6875</v>
       </c>
     </row>
@@ -9736,10 +9740,10 @@
       <c r="G315" t="s">
         <v>17</v>
       </c>
-      <c r="H315" s="2">
+      <c r="H315" s="3">
         <v>43413.458333333343</v>
       </c>
-      <c r="I315" s="2">
+      <c r="I315" s="3">
         <v>43413.9375</v>
       </c>
     </row>
@@ -9765,10 +9769,10 @@
       <c r="G316" t="s">
         <v>17</v>
       </c>
-      <c r="H316" s="2">
+      <c r="H316" s="3">
         <v>43413.458333333343</v>
       </c>
-      <c r="I316" s="2">
+      <c r="I316" s="3">
         <v>43413.9375</v>
       </c>
     </row>
@@ -9794,10 +9798,10 @@
       <c r="G317" t="s">
         <v>17</v>
       </c>
-      <c r="H317" s="2">
+      <c r="H317" s="3">
         <v>43413.125</v>
       </c>
-      <c r="I317" s="2">
+      <c r="I317" s="3">
         <v>43413.145833333343</v>
       </c>
     </row>
@@ -9823,10 +9827,10 @@
       <c r="G318" t="s">
         <v>23</v>
       </c>
-      <c r="H318" s="2">
+      <c r="H318" s="3">
         <v>43412.279166666667</v>
       </c>
-      <c r="I318" s="2">
+      <c r="I318" s="3">
         <v>43413.283333333333</v>
       </c>
     </row>
@@ -9852,10 +9856,10 @@
       <c r="G319" t="s">
         <v>23</v>
       </c>
-      <c r="H319" s="2">
+      <c r="H319" s="3">
         <v>43414.404166666667</v>
       </c>
-      <c r="I319" s="2">
+      <c r="I319" s="3">
         <v>43414.587500000001</v>
       </c>
     </row>
@@ -9881,10 +9885,10 @@
       <c r="G320" t="s">
         <v>23</v>
       </c>
-      <c r="H320" s="2">
+      <c r="H320" s="3">
         <v>43413.82916666667</v>
       </c>
-      <c r="I320" s="2">
+      <c r="I320" s="3">
         <v>43414.041666666657</v>
       </c>
     </row>
@@ -9910,10 +9914,10 @@
       <c r="G321" t="s">
         <v>17</v>
       </c>
-      <c r="H321" s="2">
+      <c r="H321" s="3">
         <v>43413.458333333343</v>
       </c>
-      <c r="I321" s="2">
+      <c r="I321" s="3">
         <v>43413.9375</v>
       </c>
     </row>
@@ -9939,10 +9943,10 @@
       <c r="G322" t="s">
         <v>23</v>
       </c>
-      <c r="H322" s="2">
+      <c r="H322" s="3">
         <v>43411.387499999997</v>
       </c>
-      <c r="I322" s="2">
+      <c r="I322" s="3">
         <v>43412.279166666667</v>
       </c>
     </row>
@@ -9968,10 +9972,10 @@
       <c r="G323" t="s">
         <v>17</v>
       </c>
-      <c r="H323" s="2">
+      <c r="H323" s="3">
         <v>43413</v>
       </c>
-      <c r="I323" s="2">
+      <c r="I323" s="3">
         <v>43413.625</v>
       </c>
     </row>
@@ -9997,10 +10001,10 @@
       <c r="G324" t="s">
         <v>23</v>
       </c>
-      <c r="H324" s="2">
+      <c r="H324" s="3">
         <v>43414.041666666657</v>
       </c>
-      <c r="I324" s="2">
+      <c r="I324" s="3">
         <v>43414.254166666673</v>
       </c>
     </row>
@@ -10026,10 +10030,10 @@
       <c r="G325" t="s">
         <v>17</v>
       </c>
-      <c r="H325" s="2">
+      <c r="H325" s="3">
         <v>43413.458333333343</v>
       </c>
-      <c r="I325" s="2">
+      <c r="I325" s="3">
         <v>43413.9375</v>
       </c>
     </row>
@@ -10055,10 +10059,10 @@
       <c r="G326" t="s">
         <v>23</v>
       </c>
-      <c r="H326" s="2">
+      <c r="H326" s="3">
         <v>43414.254166666673</v>
       </c>
-      <c r="I326" s="2">
+      <c r="I326" s="3">
         <v>43414.4375</v>
       </c>
     </row>
@@ -10084,10 +10088,10 @@
       <c r="G327" t="s">
         <v>17</v>
       </c>
-      <c r="H327" s="2">
+      <c r="H327" s="3">
         <v>43414.587500000001</v>
       </c>
-      <c r="I327" s="2">
+      <c r="I327" s="3">
         <v>43414.82916666667</v>
       </c>
     </row>
@@ -10113,10 +10117,10 @@
       <c r="G328" t="s">
         <v>17</v>
       </c>
-      <c r="H328" s="2">
+      <c r="H328" s="3">
         <v>43413.6875</v>
       </c>
-      <c r="I328" s="2">
+      <c r="I328" s="3">
         <v>43413.82916666667</v>
       </c>
     </row>
@@ -10142,10 +10146,10 @@
       <c r="G329" t="s">
         <v>23</v>
       </c>
-      <c r="H329" s="2">
+      <c r="H329" s="3">
         <v>43414.587500000001</v>
       </c>
-      <c r="I329" s="2">
+      <c r="I329" s="3">
         <v>43415.104166666657</v>
       </c>
     </row>
@@ -10171,10 +10175,10 @@
       <c r="G330" t="s">
         <v>17</v>
       </c>
-      <c r="H330" s="2">
+      <c r="H330" s="3">
         <v>43413.458333333343</v>
       </c>
-      <c r="I330" s="2">
+      <c r="I330" s="3">
         <v>43413.9375</v>
       </c>
     </row>
@@ -10200,10 +10204,10 @@
       <c r="G331" t="s">
         <v>17</v>
       </c>
-      <c r="H331" s="2">
+      <c r="H331" s="3">
         <v>43413.370833333327</v>
       </c>
-      <c r="I331" s="2">
+      <c r="I331" s="3">
         <v>43413.64166666667</v>
       </c>
     </row>
@@ -10229,10 +10233,10 @@
       <c r="G332" t="s">
         <v>17</v>
       </c>
-      <c r="H332" s="2">
+      <c r="H332" s="3">
         <v>43413.458333333343</v>
       </c>
-      <c r="I332" s="2">
+      <c r="I332" s="3">
         <v>43413.9375</v>
       </c>
     </row>
@@ -10258,10 +10262,10 @@
       <c r="G333" t="s">
         <v>23</v>
       </c>
-      <c r="H333" s="2">
+      <c r="H333" s="3">
         <v>43414.587500000001</v>
       </c>
-      <c r="I333" s="2">
+      <c r="I333" s="3">
         <v>43414.820833333331</v>
       </c>
     </row>
@@ -10287,10 +10291,10 @@
       <c r="G334" t="s">
         <v>17</v>
       </c>
-      <c r="H334" s="2">
+      <c r="H334" s="3">
         <v>43413.625</v>
       </c>
-      <c r="I334" s="2">
+      <c r="I334" s="3">
         <v>43413.645833333343</v>
       </c>
     </row>
@@ -10316,10 +10320,10 @@
       <c r="G335" t="s">
         <v>17</v>
       </c>
-      <c r="H335" s="2">
+      <c r="H335" s="3">
         <v>43414.4375</v>
       </c>
-      <c r="I335" s="2">
+      <c r="I335" s="3">
         <v>43414.712500000001</v>
       </c>
     </row>
@@ -10345,10 +10349,10 @@
       <c r="G336" t="s">
         <v>17</v>
       </c>
-      <c r="H336" s="2">
+      <c r="H336" s="3">
         <v>43414.820833333331</v>
       </c>
-      <c r="I336" s="2">
+      <c r="I336" s="3">
         <v>43414.962500000001</v>
       </c>
     </row>
@@ -10374,10 +10378,10 @@
       <c r="G337" t="s">
         <v>17</v>
       </c>
-      <c r="H337" s="2">
+      <c r="H337" s="3">
         <v>43414.712500000001</v>
       </c>
-      <c r="I337" s="2">
+      <c r="I337" s="3">
         <v>43414.962500000001</v>
       </c>
     </row>
@@ -10403,10 +10407,10 @@
       <c r="G338" t="s">
         <v>17</v>
       </c>
-      <c r="H338" s="2">
+      <c r="H338" s="3">
         <v>43413.458333333343</v>
       </c>
-      <c r="I338" s="2">
+      <c r="I338" s="3">
         <v>43413.9375</v>
       </c>
     </row>
@@ -10432,10 +10436,10 @@
       <c r="G339" t="s">
         <v>17</v>
       </c>
-      <c r="H339" s="2">
+      <c r="H339" s="3">
         <v>43414.82916666667</v>
       </c>
-      <c r="I339" s="2">
+      <c r="I339" s="3">
         <v>43415.070833333331</v>
       </c>
     </row>
@@ -10461,10 +10465,10 @@
       <c r="G340" t="s">
         <v>17</v>
       </c>
-      <c r="H340" s="2">
+      <c r="H340" s="3">
         <v>43415.070833333331</v>
       </c>
-      <c r="I340" s="2">
+      <c r="I340" s="3">
         <v>43415.212500000001</v>
       </c>
     </row>
@@ -10490,10 +10494,10 @@
       <c r="G341" t="s">
         <v>23</v>
       </c>
-      <c r="H341" s="2">
+      <c r="H341" s="3">
         <v>43415.070833333331</v>
       </c>
-      <c r="I341" s="2">
+      <c r="I341" s="3">
         <v>43415.10833333333</v>
       </c>
     </row>
@@ -10519,10 +10523,10 @@
       <c r="G342" t="s">
         <v>23</v>
       </c>
-      <c r="H342" s="2">
+      <c r="H342" s="3">
         <v>43414.962500000001</v>
       </c>
-      <c r="I342" s="2">
+      <c r="I342" s="3">
         <v>43415.175000000003</v>
       </c>
     </row>
@@ -10548,10 +10552,10 @@
       <c r="G343" t="s">
         <v>17</v>
       </c>
-      <c r="H343" s="2">
+      <c r="H343" s="3">
         <v>43413.458333333343</v>
       </c>
-      <c r="I343" s="2">
+      <c r="I343" s="3">
         <v>43413.9375</v>
       </c>
     </row>
@@ -10577,10 +10581,10 @@
       <c r="G344" t="s">
         <v>23</v>
       </c>
-      <c r="H344" s="2">
+      <c r="H344" s="3">
         <v>43415.212500000001</v>
       </c>
-      <c r="I344" s="2">
+      <c r="I344" s="3">
         <v>43415.445833333331</v>
       </c>
     </row>
@@ -10606,10 +10610,10 @@
       <c r="G345" t="s">
         <v>17</v>
       </c>
-      <c r="H345" s="2">
+      <c r="H345" s="3">
         <v>43413.1</v>
       </c>
-      <c r="I345" s="2">
+      <c r="I345" s="3">
         <v>43413.1875</v>
       </c>
     </row>
@@ -10635,10 +10639,10 @@
       <c r="G346" t="s">
         <v>17</v>
       </c>
-      <c r="H346" s="2">
+      <c r="H346" s="3">
         <v>43413.64166666667</v>
       </c>
-      <c r="I346" s="2">
+      <c r="I346" s="3">
         <v>43413.912499999999</v>
       </c>
     </row>
@@ -10664,10 +10668,10 @@
       <c r="G347" t="s">
         <v>17</v>
       </c>
-      <c r="H347" s="2">
+      <c r="H347" s="3">
         <v>43415.10833333333</v>
       </c>
-      <c r="I347" s="2">
+      <c r="I347" s="3">
         <v>43415.35</v>
       </c>
     </row>
@@ -10693,10 +10697,10 @@
       <c r="G348" t="s">
         <v>17</v>
       </c>
-      <c r="H348" s="2">
+      <c r="H348" s="3">
         <v>43414.820833333331</v>
       </c>
-      <c r="I348" s="2">
+      <c r="I348" s="3">
         <v>43414.962500000001</v>
       </c>
     </row>
@@ -10722,10 +10726,10 @@
       <c r="G349" t="s">
         <v>23</v>
       </c>
-      <c r="H349" s="2">
+      <c r="H349" s="3">
         <v>43414.587500000001</v>
       </c>
-      <c r="I349" s="2">
+      <c r="I349" s="3">
         <v>43415.104166666657</v>
       </c>
     </row>
@@ -10751,10 +10755,10 @@
       <c r="G350" t="s">
         <v>17</v>
       </c>
-      <c r="H350" s="2">
+      <c r="H350" s="3">
         <v>43415.445833333331</v>
       </c>
-      <c r="I350" s="2">
+      <c r="I350" s="3">
         <v>43415.533333333333</v>
       </c>
     </row>
@@ -10780,10 +10784,10 @@
       <c r="G351" t="s">
         <v>23</v>
       </c>
-      <c r="H351" s="2">
+      <c r="H351" s="3">
         <v>43414.587500000001</v>
       </c>
-      <c r="I351" s="2">
+      <c r="I351" s="3">
         <v>43415.104166666657</v>
       </c>
     </row>
@@ -10809,10 +10813,10 @@
       <c r="G352" t="s">
         <v>17</v>
       </c>
-      <c r="H352" s="2">
+      <c r="H352" s="3">
         <v>43415.175000000003</v>
       </c>
-      <c r="I352" s="2">
+      <c r="I352" s="3">
         <v>43415.416666666657</v>
       </c>
     </row>
@@ -10838,10 +10842,10 @@
       <c r="G353" t="s">
         <v>17</v>
       </c>
-      <c r="H353" s="2">
+      <c r="H353" s="3">
         <v>43415.070833333331</v>
       </c>
-      <c r="I353" s="2">
+      <c r="I353" s="3">
         <v>43415.212500000001</v>
       </c>
     </row>
@@ -10867,10 +10871,10 @@
       <c r="G354" t="s">
         <v>17</v>
       </c>
-      <c r="H354" s="2">
+      <c r="H354" s="3">
         <v>43415.533333333333</v>
       </c>
-      <c r="I354" s="2">
+      <c r="I354" s="3">
         <v>43415.675000000003</v>
       </c>
     </row>
@@ -10896,10 +10900,10 @@
       <c r="G355" t="s">
         <v>23</v>
       </c>
-      <c r="H355" s="2">
+      <c r="H355" s="3">
         <v>43414.820833333331</v>
       </c>
-      <c r="I355" s="2">
+      <c r="I355" s="3">
         <v>43415.191666666673</v>
       </c>
     </row>
@@ -10925,10 +10929,10 @@
       <c r="G356" t="s">
         <v>17</v>
       </c>
-      <c r="H356" s="2">
+      <c r="H356" s="3">
         <v>43413.625</v>
       </c>
-      <c r="I356" s="2">
+      <c r="I356" s="3">
         <v>43414.25</v>
       </c>
     </row>
@@ -10954,10 +10958,10 @@
       <c r="G357" t="s">
         <v>17</v>
       </c>
-      <c r="H357" s="2">
+      <c r="H357" s="3">
         <v>43415.675000000003</v>
       </c>
-      <c r="I357" s="2">
+      <c r="I357" s="3">
         <v>43415.762499999997</v>
       </c>
     </row>
@@ -10983,10 +10987,10 @@
       <c r="G358" t="s">
         <v>23</v>
       </c>
-      <c r="H358" s="2">
+      <c r="H358" s="3">
         <v>43414.587500000001</v>
       </c>
-      <c r="I358" s="2">
+      <c r="I358" s="3">
         <v>43415.104166666657</v>
       </c>
     </row>
@@ -11012,10 +11016,10 @@
       <c r="G359" t="s">
         <v>23</v>
       </c>
-      <c r="H359" s="2">
+      <c r="H359" s="3">
         <v>43415.212500000001</v>
       </c>
-      <c r="I359" s="2">
+      <c r="I359" s="3">
         <v>43415.445833333331</v>
       </c>
     </row>
@@ -11041,10 +11045,10 @@
       <c r="G360" t="s">
         <v>17</v>
       </c>
-      <c r="H360" s="2">
+      <c r="H360" s="3">
         <v>43415.533333333333</v>
       </c>
-      <c r="I360" s="2">
+      <c r="I360" s="3">
         <v>43415.675000000003</v>
       </c>
     </row>
@@ -11070,10 +11074,10 @@
       <c r="G361" t="s">
         <v>23</v>
       </c>
-      <c r="H361" s="2">
+      <c r="H361" s="3">
         <v>43415.104166666657</v>
       </c>
-      <c r="I361" s="2">
+      <c r="I361" s="3">
         <v>43415.995833333327</v>
       </c>
     </row>
@@ -11099,10 +11103,10 @@
       <c r="G362" t="s">
         <v>17</v>
       </c>
-      <c r="H362" s="2">
+      <c r="H362" s="3">
         <v>43415.35</v>
       </c>
-      <c r="I362" s="2">
+      <c r="I362" s="3">
         <v>43415.591666666667</v>
       </c>
     </row>
@@ -11128,10 +11132,10 @@
       <c r="G363" t="s">
         <v>17</v>
       </c>
-      <c r="H363" s="2">
+      <c r="H363" s="3">
         <v>43413.458333333343</v>
       </c>
-      <c r="I363" s="2">
+      <c r="I363" s="3">
         <v>43413.599999999999</v>
       </c>
     </row>
@@ -11157,10 +11161,10 @@
       <c r="G364" t="s">
         <v>17</v>
       </c>
-      <c r="H364" s="2">
+      <c r="H364" s="3">
         <v>43413.458333333343</v>
       </c>
-      <c r="I364" s="2">
+      <c r="I364" s="3">
         <v>43413.9375</v>
       </c>
     </row>
@@ -11186,10 +11190,10 @@
       <c r="G365" t="s">
         <v>23</v>
       </c>
-      <c r="H365" s="2">
+      <c r="H365" s="3">
         <v>43415.995833333327</v>
       </c>
-      <c r="I365" s="2">
+      <c r="I365" s="3">
         <v>43416.570833333331</v>
       </c>
     </row>
@@ -11215,10 +11219,10 @@
       <c r="G366" t="s">
         <v>17</v>
       </c>
-      <c r="H366" s="2">
+      <c r="H366" s="3">
         <v>43415.591666666667</v>
       </c>
-      <c r="I366" s="2">
+      <c r="I366" s="3">
         <v>43415.833333333343</v>
       </c>
     </row>
@@ -11244,10 +11248,10 @@
       <c r="G367" t="s">
         <v>17</v>
       </c>
-      <c r="H367" s="2">
+      <c r="H367" s="3">
         <v>43415.762499999997</v>
       </c>
-      <c r="I367" s="2">
+      <c r="I367" s="3">
         <v>43415.904166666667</v>
       </c>
     </row>
@@ -11273,10 +11277,10 @@
       <c r="G368" t="s">
         <v>17</v>
       </c>
-      <c r="H368" s="2">
+      <c r="H368" s="3">
         <v>43415.495833333327</v>
       </c>
-      <c r="I368" s="2">
+      <c r="I368" s="3">
         <v>43416.120833333327</v>
       </c>
     </row>
@@ -11302,10 +11306,10 @@
       <c r="G369" t="s">
         <v>17</v>
       </c>
-      <c r="H369" s="2">
+      <c r="H369" s="3">
         <v>43415.762499999997</v>
       </c>
-      <c r="I369" s="2">
+      <c r="I369" s="3">
         <v>43415.904166666667</v>
       </c>
     </row>
@@ -11331,10 +11335,10 @@
       <c r="G370" t="s">
         <v>17</v>
       </c>
-      <c r="H370" s="2">
+      <c r="H370" s="3">
         <v>43415.675000000003</v>
       </c>
-      <c r="I370" s="2">
+      <c r="I370" s="3">
         <v>43416.3</v>
       </c>
     </row>
@@ -11360,10 +11364,10 @@
       <c r="G371" t="s">
         <v>17</v>
       </c>
-      <c r="H371" s="2">
+      <c r="H371" s="3">
         <v>43415.762499999997</v>
       </c>
-      <c r="I371" s="2">
+      <c r="I371" s="3">
         <v>43416.241666666669</v>
       </c>
     </row>
@@ -11389,10 +11393,10 @@
       <c r="G372" t="s">
         <v>23</v>
       </c>
-      <c r="H372" s="2">
+      <c r="H372" s="3">
         <v>43416.620833333327</v>
       </c>
-      <c r="I372" s="2">
+      <c r="I372" s="3">
         <v>43416.991666666669</v>
       </c>
     </row>
@@ -11418,10 +11422,10 @@
       <c r="G373" t="s">
         <v>23</v>
       </c>
-      <c r="H373" s="2">
+      <c r="H373" s="3">
         <v>43415.904166666667</v>
       </c>
-      <c r="I373" s="2">
+      <c r="I373" s="3">
         <v>43416.137499999997</v>
       </c>
     </row>
@@ -11447,10 +11451,10 @@
       <c r="G374" t="s">
         <v>23</v>
       </c>
-      <c r="H374" s="2">
+      <c r="H374" s="3">
         <v>43416.991666666669</v>
       </c>
-      <c r="I374" s="2">
+      <c r="I374" s="3">
         <v>43417.012499999997</v>
       </c>
     </row>
@@ -11476,10 +11480,10 @@
       <c r="G375" t="s">
         <v>17</v>
       </c>
-      <c r="H375" s="2">
+      <c r="H375" s="3">
         <v>43415.833333333343</v>
       </c>
-      <c r="I375" s="2">
+      <c r="I375" s="3">
         <v>43416.083333333343</v>
       </c>
     </row>
@@ -11505,10 +11509,10 @@
       <c r="G376" t="s">
         <v>23</v>
       </c>
-      <c r="H376" s="2">
+      <c r="H376" s="3">
         <v>43416.570833333331</v>
       </c>
-      <c r="I376" s="2">
+      <c r="I376" s="3">
         <v>43417.087500000001</v>
       </c>
     </row>
@@ -11534,10 +11538,10 @@
       <c r="G377" t="s">
         <v>17</v>
       </c>
-      <c r="H377" s="2">
+      <c r="H377" s="3">
         <v>43416.875</v>
       </c>
-      <c r="I377" s="2">
+      <c r="I377" s="3">
         <v>43417.5</v>
       </c>
     </row>
@@ -11563,10 +11567,10 @@
       <c r="G378" t="s">
         <v>17</v>
       </c>
-      <c r="H378" s="2">
+      <c r="H378" s="3">
         <v>43417.5</v>
       </c>
-      <c r="I378" s="2">
+      <c r="I378" s="3">
         <v>43417.520833333343</v>
       </c>
     </row>
@@ -11592,10 +11596,10 @@
       <c r="G379" t="s">
         <v>17</v>
       </c>
-      <c r="H379" s="2">
+      <c r="H379" s="3">
         <v>43416.991666666669</v>
       </c>
-      <c r="I379" s="2">
+      <c r="I379" s="3">
         <v>43417.616666666669</v>
       </c>
     </row>
@@ -11621,10 +11625,10 @@
       <c r="G380" t="s">
         <v>23</v>
       </c>
-      <c r="H380" s="2">
+      <c r="H380" s="3">
         <v>43416.083333333343</v>
       </c>
-      <c r="I380" s="2">
+      <c r="I380" s="3">
         <v>43416.26666666667</v>
       </c>
     </row>
@@ -11650,10 +11654,10 @@
       <c r="G381" t="s">
         <v>17</v>
       </c>
-      <c r="H381" s="2">
+      <c r="H381" s="3">
         <v>43414.962500000001</v>
       </c>
-      <c r="I381" s="2">
+      <c r="I381" s="3">
         <v>43415.695833333331</v>
       </c>
     </row>
@@ -11679,10 +11683,10 @@
       <c r="G382" t="s">
         <v>23</v>
       </c>
-      <c r="H382" s="2">
+      <c r="H382" s="3">
         <v>43412.375</v>
       </c>
-      <c r="I382" s="2">
+      <c r="I382" s="3">
         <v>43412.60833333333</v>
       </c>
     </row>
@@ -11708,10 +11712,10 @@
       <c r="G383" t="s">
         <v>23</v>
       </c>
-      <c r="H383" s="2">
+      <c r="H383" s="3">
         <v>43415.995833333327</v>
       </c>
-      <c r="I383" s="2">
+      <c r="I383" s="3">
         <v>43416.570833333331</v>
       </c>
     </row>
@@ -11737,10 +11741,10 @@
       <c r="G384" t="s">
         <v>17</v>
       </c>
-      <c r="H384" s="2">
+      <c r="H384" s="3">
         <v>43416.137499999997</v>
       </c>
-      <c r="I384" s="2">
+      <c r="I384" s="3">
         <v>43416.279166666667</v>
       </c>
     </row>
@@ -11766,10 +11770,10 @@
       <c r="G385" t="s">
         <v>23</v>
       </c>
-      <c r="H385" s="2">
+      <c r="H385" s="3">
         <v>43416.279166666667</v>
       </c>
-      <c r="I385" s="2">
+      <c r="I385" s="3">
         <v>43416.512499999997</v>
       </c>
     </row>
@@ -11795,10 +11799,10 @@
       <c r="G386" t="s">
         <v>17</v>
       </c>
-      <c r="H386" s="2">
+      <c r="H386" s="3">
         <v>43416.26666666667</v>
       </c>
-      <c r="I386" s="2">
+      <c r="I386" s="3">
         <v>43416.508333333331</v>
       </c>
     </row>
@@ -11824,10 +11828,10 @@
       <c r="G387" t="s">
         <v>23</v>
       </c>
-      <c r="H387" s="2">
+      <c r="H387" s="3">
         <v>43415.104166666657</v>
       </c>
-      <c r="I387" s="2">
+      <c r="I387" s="3">
         <v>43415.995833333327</v>
       </c>
     </row>
@@ -11853,10 +11857,10 @@
       <c r="G388" t="s">
         <v>17</v>
       </c>
-      <c r="H388" s="2">
+      <c r="H388" s="3">
         <v>43415.416666666657</v>
       </c>
-      <c r="I388" s="2">
+      <c r="I388" s="3">
         <v>43415.658333333333</v>
       </c>
     </row>
@@ -11882,10 +11886,10 @@
       <c r="G389" t="s">
         <v>17</v>
       </c>
-      <c r="H389" s="2">
+      <c r="H389" s="3">
         <v>43415.445833333331</v>
       </c>
-      <c r="I389" s="2">
+      <c r="I389" s="3">
         <v>43415.533333333333</v>
       </c>
     </row>
@@ -11911,10 +11915,10 @@
       <c r="G390" t="s">
         <v>17</v>
       </c>
-      <c r="H390" s="2">
+      <c r="H390" s="3">
         <v>43416.508333333331</v>
       </c>
-      <c r="I390" s="2">
+      <c r="I390" s="3">
         <v>43416.783333333333</v>
       </c>
     </row>
@@ -11940,10 +11944,10 @@
       <c r="G391" t="s">
         <v>23</v>
       </c>
-      <c r="H391" s="2">
+      <c r="H391" s="3">
         <v>43415.98333333333</v>
       </c>
-      <c r="I391" s="2">
+      <c r="I391" s="3">
         <v>43416.354166666657</v>
       </c>
     </row>
@@ -11969,10 +11973,10 @@
       <c r="G392" t="s">
         <v>23</v>
       </c>
-      <c r="H392" s="2">
+      <c r="H392" s="3">
         <v>43415.995833333327</v>
       </c>
-      <c r="I392" s="2">
+      <c r="I392" s="3">
         <v>43416.179166666669</v>
       </c>
     </row>
@@ -11998,10 +12002,10 @@
       <c r="G393" t="s">
         <v>23</v>
       </c>
-      <c r="H393" s="2">
+      <c r="H393" s="3">
         <v>43419.116666666669</v>
       </c>
-      <c r="I393" s="2">
+      <c r="I393" s="3">
         <v>43419.487500000003</v>
       </c>
     </row>
@@ -12027,10 +12031,10 @@
       <c r="G394" t="s">
         <v>17</v>
       </c>
-      <c r="H394" s="2">
+      <c r="H394" s="3">
         <v>43416.179166666669</v>
       </c>
-      <c r="I394" s="2">
+      <c r="I394" s="3">
         <v>43416.42083333333</v>
       </c>
     </row>
@@ -12056,10 +12060,10 @@
       <c r="G395" t="s">
         <v>17</v>
       </c>
-      <c r="H395" s="2">
+      <c r="H395" s="3">
         <v>43419.487500000003</v>
       </c>
-      <c r="I395" s="2">
+      <c r="I395" s="3">
         <v>43420.112500000003</v>
       </c>
     </row>
@@ -12085,10 +12089,10 @@
       <c r="G396" t="s">
         <v>17</v>
       </c>
-      <c r="H396" s="2">
+      <c r="H396" s="3">
         <v>43416.512499999997</v>
       </c>
-      <c r="I396" s="2">
+      <c r="I396" s="3">
         <v>43416.654166666667</v>
       </c>
     </row>
@@ -12114,10 +12118,10 @@
       <c r="G397" t="s">
         <v>17</v>
       </c>
-      <c r="H397" s="2">
+      <c r="H397" s="3">
         <v>43415.762499999997</v>
       </c>
-      <c r="I397" s="2">
+      <c r="I397" s="3">
         <v>43416.241666666669</v>
       </c>
     </row>
@@ -12143,10 +12147,10 @@
       <c r="G398" t="s">
         <v>17</v>
       </c>
-      <c r="H398" s="2">
+      <c r="H398" s="3">
         <v>43416.783333333333</v>
       </c>
-      <c r="I398" s="2">
+      <c r="I398" s="3">
         <v>43417.058333333327</v>
       </c>
     </row>
@@ -12172,10 +12176,10 @@
       <c r="G399" t="s">
         <v>23</v>
       </c>
-      <c r="H399" s="2">
+      <c r="H399" s="3">
         <v>43416.279166666667</v>
       </c>
-      <c r="I399" s="2">
+      <c r="I399" s="3">
         <v>43416.512499999997</v>
       </c>
     </row>
@@ -12201,10 +12205,10 @@
       <c r="G400" t="s">
         <v>23</v>
       </c>
-      <c r="H400" s="2">
+      <c r="H400" s="3">
         <v>43419</v>
       </c>
-      <c r="I400" s="2">
+      <c r="I400" s="3">
         <v>43419.370833333327</v>
       </c>
     </row>
@@ -12230,10 +12234,10 @@
       <c r="G401" t="s">
         <v>17</v>
       </c>
-      <c r="H401" s="2">
+      <c r="H401" s="3">
         <v>43416.512499999997</v>
       </c>
-      <c r="I401" s="2">
+      <c r="I401" s="3">
         <v>43416.654166666667</v>
       </c>
     </row>
@@ -12259,10 +12263,10 @@
       <c r="G402" t="s">
         <v>23</v>
       </c>
-      <c r="H402" s="2">
+      <c r="H402" s="3">
         <v>43416.654166666667</v>
       </c>
-      <c r="I402" s="2">
+      <c r="I402" s="3">
         <v>43416.887499999997</v>
       </c>
     </row>
@@ -12288,10 +12292,10 @@
       <c r="G403" t="s">
         <v>23</v>
       </c>
-      <c r="H403" s="2">
+      <c r="H403" s="3">
         <v>43416.887499999997</v>
       </c>
-      <c r="I403" s="2">
+      <c r="I403" s="3">
         <v>43417.120833333327</v>
       </c>
     </row>
@@ -12317,10 +12321,10 @@
       <c r="G404" t="s">
         <v>17</v>
       </c>
-      <c r="H404" s="2">
+      <c r="H404" s="3">
         <v>43416.137499999997</v>
       </c>
-      <c r="I404" s="2">
+      <c r="I404" s="3">
         <v>43416.279166666667</v>
       </c>
     </row>
@@ -12346,10 +12350,10 @@
       <c r="G405" t="s">
         <v>17</v>
       </c>
-      <c r="H405" s="2">
+      <c r="H405" s="3">
         <v>43417.120833333327</v>
       </c>
-      <c r="I405" s="2">
+      <c r="I405" s="3">
         <v>43417.262499999997</v>
       </c>
     </row>
@@ -12375,10 +12379,10 @@
       <c r="G406" t="s">
         <v>17</v>
       </c>
-      <c r="H406" s="2">
+      <c r="H406" s="3">
         <v>43416.42083333333</v>
       </c>
-      <c r="I406" s="2">
+      <c r="I406" s="3">
         <v>43416.662499999999</v>
       </c>
     </row>
@@ -12404,10 +12408,10 @@
       <c r="G407" t="s">
         <v>17</v>
       </c>
-      <c r="H407" s="2">
+      <c r="H407" s="3">
         <v>43417.262499999997</v>
       </c>
-      <c r="I407" s="2">
+      <c r="I407" s="3">
         <v>43417.404166666667</v>
       </c>
     </row>
@@ -12433,10 +12437,10 @@
       <c r="G408" t="s">
         <v>23</v>
       </c>
-      <c r="H408" s="2">
+      <c r="H408" s="3">
         <v>43417.087500000001</v>
       </c>
-      <c r="I408" s="2">
+      <c r="I408" s="3">
         <v>43417.604166666657</v>
       </c>
     </row>
@@ -12462,10 +12466,10 @@
       <c r="G409" t="s">
         <v>17</v>
       </c>
-      <c r="H409" s="2">
+      <c r="H409" s="3">
         <v>43416.241666666669</v>
       </c>
-      <c r="I409" s="2">
+      <c r="I409" s="3">
         <v>43416.720833333333</v>
       </c>
     </row>
@@ -12491,10 +12495,10 @@
       <c r="G410" t="s">
         <v>17</v>
       </c>
-      <c r="H410" s="2">
+      <c r="H410" s="3">
         <v>43416.662499999999</v>
       </c>
-      <c r="I410" s="2">
+      <c r="I410" s="3">
         <v>43416.904166666667</v>
       </c>
     </row>
@@ -12520,10 +12524,10 @@
       <c r="G411" t="s">
         <v>17</v>
       </c>
-      <c r="H411" s="2">
+      <c r="H411" s="3">
         <v>43420.612500000003</v>
       </c>
-      <c r="I411" s="2">
+      <c r="I411" s="3">
         <v>43421.237500000003</v>
       </c>
     </row>
@@ -12549,10 +12553,10 @@
       <c r="G412" t="s">
         <v>23</v>
       </c>
-      <c r="H412" s="2">
+      <c r="H412" s="3">
         <v>43416.887499999997</v>
       </c>
-      <c r="I412" s="2">
+      <c r="I412" s="3">
         <v>43417.120833333327</v>
       </c>
     </row>
@@ -12578,10 +12582,10 @@
       <c r="G413" t="s">
         <v>17</v>
       </c>
-      <c r="H413" s="2">
+      <c r="H413" s="3">
         <v>43416.241666666669</v>
       </c>
-      <c r="I413" s="2">
+      <c r="I413" s="3">
         <v>43416.720833333333</v>
       </c>
     </row>
@@ -12607,10 +12611,10 @@
       <c r="G414" t="s">
         <v>23</v>
       </c>
-      <c r="H414" s="2">
+      <c r="H414" s="3">
         <v>43416.654166666667</v>
       </c>
-      <c r="I414" s="2">
+      <c r="I414" s="3">
         <v>43416.887499999997</v>
       </c>
     </row>
@@ -12636,10 +12640,10 @@
       <c r="G415" t="s">
         <v>23</v>
       </c>
-      <c r="H415" s="2">
+      <c r="H415" s="3">
         <v>43421.737500000003</v>
       </c>
-      <c r="I415" s="2">
+      <c r="I415" s="3">
         <v>43422.10833333333</v>
       </c>
     </row>
@@ -12665,10 +12669,10 @@
       <c r="G416" t="s">
         <v>23</v>
       </c>
-      <c r="H416" s="2">
+      <c r="H416" s="3">
         <v>43417.404166666667</v>
       </c>
-      <c r="I416" s="2">
+      <c r="I416" s="3">
         <v>43417.637499999997</v>
       </c>
     </row>
@@ -12694,10 +12698,10 @@
       <c r="G417" t="s">
         <v>17</v>
       </c>
-      <c r="H417" s="2">
+      <c r="H417" s="3">
         <v>43416.904166666667</v>
       </c>
-      <c r="I417" s="2">
+      <c r="I417" s="3">
         <v>43417.145833333343</v>
       </c>
     </row>
@@ -12723,10 +12727,10 @@
       <c r="G418" t="s">
         <v>23</v>
       </c>
-      <c r="H418" s="2">
+      <c r="H418" s="3">
         <v>43417.533333333333</v>
       </c>
-      <c r="I418" s="2">
+      <c r="I418" s="3">
         <v>43417.554166666669</v>
       </c>
     </row>
@@ -12752,10 +12756,10 @@
       <c r="G419" t="s">
         <v>17</v>
       </c>
-      <c r="H419" s="2">
+      <c r="H419" s="3">
         <v>43417.262499999997</v>
       </c>
-      <c r="I419" s="2">
+      <c r="I419" s="3">
         <v>43417.404166666667</v>
       </c>
     </row>
@@ -12781,10 +12785,10 @@
       <c r="G420" t="s">
         <v>17</v>
       </c>
-      <c r="H420" s="2">
+      <c r="H420" s="3">
         <v>43417.637499999997</v>
       </c>
-      <c r="I420" s="2">
+      <c r="I420" s="3">
         <v>43417.779166666667</v>
       </c>
     </row>
@@ -12810,10 +12814,10 @@
       <c r="G421" t="s">
         <v>23</v>
       </c>
-      <c r="H421" s="2">
+      <c r="H421" s="3">
         <v>43415.995833333327</v>
       </c>
-      <c r="I421" s="2">
+      <c r="I421" s="3">
         <v>43416.570833333331</v>
       </c>
     </row>
@@ -12839,10 +12843,10 @@
       <c r="G422" t="s">
         <v>23</v>
       </c>
-      <c r="H422" s="2">
+      <c r="H422" s="3">
         <v>43417.404166666667</v>
       </c>
-      <c r="I422" s="2">
+      <c r="I422" s="3">
         <v>43417.637499999997</v>
       </c>
     </row>
@@ -12868,10 +12872,10 @@
       <c r="G423" t="s">
         <v>23</v>
       </c>
-      <c r="H423" s="2">
+      <c r="H423" s="3">
         <v>43419.370833333327</v>
       </c>
-      <c r="I423" s="2">
+      <c r="I423" s="3">
         <v>43419.85833333333</v>
       </c>
     </row>
@@ -12897,10 +12901,10 @@
       <c r="G424" t="s">
         <v>23</v>
       </c>
-      <c r="H424" s="2">
+      <c r="H424" s="3">
         <v>43422.10833333333</v>
       </c>
-      <c r="I424" s="2">
+      <c r="I424" s="3">
         <v>43422.479166666657</v>
       </c>
     </row>
@@ -12926,10 +12930,10 @@
       <c r="G425" t="s">
         <v>23</v>
       </c>
-      <c r="H425" s="2">
+      <c r="H425" s="3">
         <v>43417.779166666667</v>
       </c>
-      <c r="I425" s="2">
+      <c r="I425" s="3">
         <v>43418.012499999997</v>
       </c>
     </row>
@@ -12955,10 +12959,10 @@
       <c r="G426" t="s">
         <v>23</v>
       </c>
-      <c r="H426" s="2">
+      <c r="H426" s="3">
         <v>43422.479166666657</v>
       </c>
-      <c r="I426" s="2">
+      <c r="I426" s="3">
         <v>43422.85</v>
       </c>
     </row>
@@ -12984,10 +12988,10 @@
       <c r="G427" t="s">
         <v>23</v>
       </c>
-      <c r="H427" s="2">
+      <c r="H427" s="3">
         <v>43417.087500000001</v>
       </c>
-      <c r="I427" s="2">
+      <c r="I427" s="3">
         <v>43417.604166666657</v>
       </c>
     </row>
@@ -13013,10 +13017,10 @@
       <c r="G428" t="s">
         <v>23</v>
       </c>
-      <c r="H428" s="2">
+      <c r="H428" s="3">
         <v>43419.85833333333</v>
       </c>
-      <c r="I428" s="2">
+      <c r="I428" s="3">
         <v>43420.229166666657</v>
       </c>
     </row>
@@ -13042,10 +13046,10 @@
       <c r="G429" t="s">
         <v>17</v>
       </c>
-      <c r="H429" s="2">
+      <c r="H429" s="3">
         <v>43420.229166666657</v>
       </c>
-      <c r="I429" s="2">
+      <c r="I429" s="3">
         <v>43420.854166666657</v>
       </c>
     </row>
@@ -13071,10 +13075,10 @@
       <c r="G430" t="s">
         <v>23</v>
       </c>
-      <c r="H430" s="2">
+      <c r="H430" s="3">
         <v>43418.012499999997</v>
       </c>
-      <c r="I430" s="2">
+      <c r="I430" s="3">
         <v>43418.245833333327</v>
       </c>
     </row>
@@ -13100,10 +13104,10 @@
       <c r="G431" t="s">
         <v>23</v>
       </c>
-      <c r="H431" s="2">
+      <c r="H431" s="3">
         <v>43419.85833333333</v>
       </c>
-      <c r="I431" s="2">
+      <c r="I431" s="3">
         <v>43419.879166666673</v>
       </c>
     </row>
@@ -13129,10 +13133,10 @@
       <c r="G432" t="s">
         <v>23</v>
       </c>
-      <c r="H432" s="2">
+      <c r="H432" s="3">
         <v>43416.887499999997</v>
       </c>
-      <c r="I432" s="2">
+      <c r="I432" s="3">
         <v>43417.258333333331</v>
       </c>
     </row>
@@ -13158,10 +13162,10 @@
       <c r="G433" t="s">
         <v>23</v>
       </c>
-      <c r="H433" s="2">
+      <c r="H433" s="3">
         <v>43421.354166666657</v>
       </c>
-      <c r="I433" s="2">
+      <c r="I433" s="3">
         <v>43421.841666666667</v>
       </c>
     </row>
@@ -13187,10 +13191,10 @@
       <c r="G434" t="s">
         <v>23</v>
       </c>
-      <c r="H434" s="2">
+      <c r="H434" s="3">
         <v>43422.85</v>
       </c>
-      <c r="I434" s="2">
+      <c r="I434" s="3">
         <v>43423.337500000001</v>
       </c>
     </row>
@@ -13216,10 +13220,10 @@
       <c r="G435" t="s">
         <v>23</v>
       </c>
-      <c r="H435" s="2">
+      <c r="H435" s="3">
         <v>43423.337500000001</v>
       </c>
-      <c r="I435" s="2">
+      <c r="I435" s="3">
         <v>43423.708333333343</v>
       </c>
     </row>
@@ -13245,10 +13249,10 @@
       <c r="G436" t="s">
         <v>17</v>
       </c>
-      <c r="H436" s="2">
+      <c r="H436" s="3">
         <v>43421.841666666667</v>
       </c>
-      <c r="I436" s="2">
+      <c r="I436" s="3">
         <v>43422.466666666667</v>
       </c>
     </row>
@@ -13274,10 +13278,10 @@
       <c r="G437" t="s">
         <v>17</v>
       </c>
-      <c r="H437" s="2">
+      <c r="H437" s="3">
         <v>43419.879166666673</v>
       </c>
-      <c r="I437" s="2">
+      <c r="I437" s="3">
         <v>43419.9</v>
       </c>
     </row>
@@ -13303,10 +13307,10 @@
       <c r="G438" t="s">
         <v>17</v>
       </c>
-      <c r="H438" s="2">
+      <c r="H438" s="3">
         <v>43417.258333333331</v>
       </c>
-      <c r="I438" s="2">
+      <c r="I438" s="3">
         <v>43417.883333333331</v>
       </c>
     </row>
@@ -13332,10 +13336,10 @@
       <c r="G439" t="s">
         <v>17</v>
       </c>
-      <c r="H439" s="2">
+      <c r="H439" s="3">
         <v>43419.383333333331</v>
       </c>
-      <c r="I439" s="2">
+      <c r="I439" s="3">
         <v>43420.008333333331</v>
       </c>
     </row>
@@ -13361,10 +13365,10 @@
       <c r="G440" t="s">
         <v>17</v>
       </c>
-      <c r="H440" s="2">
+      <c r="H440" s="3">
         <v>43423.708333333343</v>
       </c>
-      <c r="I440" s="2">
+      <c r="I440" s="3">
         <v>43424.441666666673</v>
       </c>
     </row>
@@ -13390,10 +13394,10 @@
       <c r="G441" t="s">
         <v>17</v>
       </c>
-      <c r="H441" s="2">
+      <c r="H441" s="3">
         <v>43419.9</v>
       </c>
-      <c r="I441" s="2">
+      <c r="I441" s="3">
         <v>43419.92083333333</v>
       </c>
     </row>
@@ -13419,10 +13423,10 @@
       <c r="G442" t="s">
         <v>17</v>
       </c>
-      <c r="H442" s="2">
+      <c r="H442" s="3">
         <v>43420.508333333331</v>
       </c>
-      <c r="I442" s="2">
+      <c r="I442" s="3">
         <v>43421.162499999999</v>
       </c>
     </row>
@@ -13448,10 +13452,10 @@
       <c r="G443" t="s">
         <v>23</v>
       </c>
-      <c r="H443" s="2">
+      <c r="H443" s="3">
         <v>43422.10833333333</v>
       </c>
-      <c r="I443" s="2">
+      <c r="I443" s="3">
         <v>43422.129166666673</v>
       </c>
     </row>
@@ -13477,10 +13481,10 @@
       <c r="G444" t="s">
         <v>17</v>
       </c>
-      <c r="H444" s="2">
+      <c r="H444" s="3">
         <v>43417.120833333327</v>
       </c>
-      <c r="I444" s="2">
+      <c r="I444" s="3">
         <v>43417.262499999997</v>
       </c>
     </row>
@@ -13506,10 +13510,10 @@
       <c r="G445" t="s">
         <v>17</v>
       </c>
-      <c r="H445" s="2">
+      <c r="H445" s="3">
         <v>43417.637499999997</v>
       </c>
-      <c r="I445" s="2">
+      <c r="I445" s="3">
         <v>43417.779166666667</v>
       </c>
     </row>
@@ -13535,10 +13539,10 @@
       <c r="G446" t="s">
         <v>17</v>
       </c>
-      <c r="H446" s="2">
+      <c r="H446" s="3">
         <v>43422.129166666673</v>
       </c>
-      <c r="I446" s="2">
+      <c r="I446" s="3">
         <v>43422.15</v>
       </c>
     </row>
@@ -13564,10 +13568,10 @@
       <c r="G447" t="s">
         <v>17</v>
       </c>
-      <c r="H447" s="2">
+      <c r="H447" s="3">
         <v>43419.245833333327</v>
       </c>
-      <c r="I447" s="2">
+      <c r="I447" s="3">
         <v>43419.387499999997</v>
       </c>
     </row>
@@ -13593,10 +13597,10 @@
       <c r="G448" t="s">
         <v>23</v>
       </c>
-      <c r="H448" s="2">
+      <c r="H448" s="3">
         <v>43422.15</v>
       </c>
-      <c r="I448" s="2">
+      <c r="I448" s="3">
         <v>43422.17083333333</v>
       </c>
     </row>
@@ -13622,10 +13626,10 @@
       <c r="G449" t="s">
         <v>17</v>
       </c>
-      <c r="H449" s="2">
+      <c r="H449" s="3">
         <v>43421.662499999999</v>
       </c>
-      <c r="I449" s="2">
+      <c r="I449" s="3">
         <v>43422.395833333343</v>
       </c>
     </row>
@@ -13651,10 +13655,10 @@
       <c r="G450" t="s">
         <v>17</v>
       </c>
-      <c r="H450" s="2">
+      <c r="H450" s="3">
         <v>43419.387499999997</v>
       </c>
-      <c r="I450" s="2">
+      <c r="I450" s="3">
         <v>43419.529166666667</v>
       </c>
     </row>
@@ -13680,10 +13684,10 @@
       <c r="G451" t="s">
         <v>17</v>
       </c>
-      <c r="H451" s="2">
+      <c r="H451" s="3">
         <v>43419.245833333327</v>
       </c>
-      <c r="I451" s="2">
+      <c r="I451" s="3">
         <v>43419.387499999997</v>
       </c>
     </row>
@@ -13709,10 +13713,10 @@
       <c r="G452" t="s">
         <v>17</v>
       </c>
-      <c r="H452" s="2">
+      <c r="H452" s="3">
         <v>43419.387499999997</v>
       </c>
-      <c r="I452" s="2">
+      <c r="I452" s="3">
         <v>43419.529166666667</v>
       </c>
     </row>
@@ -13738,10 +13742,10 @@
       <c r="G453" t="s">
         <v>23</v>
       </c>
-      <c r="H453" s="2">
+      <c r="H453" s="3">
         <v>43422.85</v>
       </c>
-      <c r="I453" s="2">
+      <c r="I453" s="3">
         <v>43422.870833333327</v>
       </c>
     </row>
@@ -13767,10 +13771,10 @@
       <c r="G454" t="s">
         <v>17</v>
       </c>
-      <c r="H454" s="2">
+      <c r="H454" s="3">
         <v>43422.895833333343</v>
       </c>
-      <c r="I454" s="2">
+      <c r="I454" s="3">
         <v>43423.520833333343</v>
       </c>
     </row>
@@ -13796,10 +13800,10 @@
       <c r="G455" t="s">
         <v>23</v>
       </c>
-      <c r="H455" s="2">
+      <c r="H455" s="3">
         <v>43422.870833333327</v>
       </c>
-      <c r="I455" s="2">
+      <c r="I455" s="3">
         <v>43422.89166666667</v>
       </c>
     </row>
@@ -13825,10 +13829,10 @@
       <c r="G456" t="s">
         <v>17</v>
       </c>
-      <c r="H456" s="2">
+      <c r="H456" s="3">
         <v>43423.520833333343</v>
       </c>
-      <c r="I456" s="2">
+      <c r="I456" s="3">
         <v>43423.541666666657</v>
       </c>
     </row>
@@ -13854,10 +13858,10 @@
       <c r="G457" t="s">
         <v>17</v>
       </c>
-      <c r="H457" s="2">
+      <c r="H457" s="3">
         <v>43417.058333333327</v>
       </c>
-      <c r="I457" s="2">
+      <c r="I457" s="3">
         <v>43417.3</v>
       </c>
     </row>
@@ -13883,10 +13887,10 @@
       <c r="G458" t="s">
         <v>17</v>
       </c>
-      <c r="H458" s="2">
+      <c r="H458" s="3">
         <v>43424.941666666673</v>
       </c>
-      <c r="I458" s="2">
+      <c r="I458" s="3">
         <v>43425.566666666673</v>
       </c>
     </row>
@@ -13912,10 +13916,10 @@
       <c r="G459" t="s">
         <v>17</v>
       </c>
-      <c r="H459" s="2">
+      <c r="H459" s="3">
         <v>43423.541666666657</v>
       </c>
-      <c r="I459" s="2">
+      <c r="I459" s="3">
         <v>43423.5625</v>
       </c>
     </row>
@@ -13941,10 +13945,10 @@
       <c r="G460" t="s">
         <v>17</v>
       </c>
-      <c r="H460" s="2">
+      <c r="H460" s="3">
         <v>43423.5625</v>
       </c>
-      <c r="I460" s="2">
+      <c r="I460" s="3">
         <v>43423.583333333343</v>
       </c>
     </row>
@@ -13970,10 +13974,10 @@
       <c r="G461" t="s">
         <v>17</v>
       </c>
-      <c r="H461" s="2">
+      <c r="H461" s="3">
         <v>43417.3</v>
       </c>
-      <c r="I461" s="2">
+      <c r="I461" s="3">
         <v>43417.574999999997</v>
       </c>
     </row>
@@ -13999,10 +14003,10 @@
       <c r="G462" t="s">
         <v>17</v>
       </c>
-      <c r="H462" s="2">
+      <c r="H462" s="3">
         <v>43423.583333333343</v>
       </c>
-      <c r="I462" s="2">
+      <c r="I462" s="3">
         <v>43423.604166666657</v>
       </c>
     </row>
@@ -14028,10 +14032,10 @@
       <c r="G463" t="s">
         <v>17</v>
       </c>
-      <c r="H463" s="2">
+      <c r="H463" s="3">
         <v>43422.966666666667</v>
       </c>
-      <c r="I463" s="2">
+      <c r="I463" s="3">
         <v>43423.591666666667</v>
       </c>
     </row>
@@ -14057,10 +14061,10 @@
       <c r="G464" t="s">
         <v>23</v>
       </c>
-      <c r="H464" s="2">
+      <c r="H464" s="3">
         <v>43423.604166666657</v>
       </c>
-      <c r="I464" s="2">
+      <c r="I464" s="3">
         <v>43423.625</v>
       </c>
     </row>
@@ -14086,10 +14090,10 @@
       <c r="G465" t="s">
         <v>23</v>
       </c>
-      <c r="H465" s="2">
+      <c r="H465" s="3">
         <v>43424.020833333343</v>
       </c>
-      <c r="I465" s="2">
+      <c r="I465" s="3">
         <v>43424.39166666667</v>
       </c>
     </row>
@@ -14115,10 +14119,10 @@
       <c r="G466" t="s">
         <v>17</v>
       </c>
-      <c r="H466" s="2">
+      <c r="H466" s="3">
         <v>43424.39166666667</v>
       </c>
-      <c r="I466" s="2">
+      <c r="I466" s="3">
         <v>43425.01666666667</v>
       </c>
     </row>
@@ -14144,10 +14148,10 @@
       <c r="G467" t="s">
         <v>23</v>
       </c>
-      <c r="H467" s="2">
+      <c r="H467" s="3">
         <v>43425.51666666667</v>
       </c>
-      <c r="I467" s="2">
+      <c r="I467" s="3">
         <v>43426.004166666673</v>
       </c>
     </row>
@@ -14173,10 +14177,10 @@
       <c r="G468" t="s">
         <v>17</v>
       </c>
-      <c r="H468" s="2">
+      <c r="H468" s="3">
         <v>43427.066666666673</v>
       </c>
-      <c r="I468" s="2">
+      <c r="I468" s="3">
         <v>43427.691666666673</v>
       </c>
     </row>
@@ -14202,10 +14206,10 @@
       <c r="G469" t="s">
         <v>17</v>
       </c>
-      <c r="H469" s="2">
+      <c r="H469" s="3">
         <v>43428.191666666673</v>
       </c>
-      <c r="I469" s="2">
+      <c r="I469" s="3">
         <v>43428.845833333333</v>
       </c>
     </row>
@@ -14231,10 +14235,10 @@
       <c r="G470" t="s">
         <v>17</v>
       </c>
-      <c r="H470" s="2">
+      <c r="H470" s="3">
         <v>43417.574999999997</v>
       </c>
-      <c r="I470" s="2">
+      <c r="I470" s="3">
         <v>43417.85</v>
       </c>
     </row>
@@ -14260,10 +14264,10 @@
       <c r="G471" t="s">
         <v>17</v>
       </c>
-      <c r="H471" s="2">
+      <c r="H471" s="3">
         <v>43419.529166666667</v>
       </c>
-      <c r="I471" s="2">
+      <c r="I471" s="3">
         <v>43419.67083333333</v>
       </c>
     </row>
@@ -14289,10 +14293,10 @@
       <c r="G472" t="s">
         <v>17</v>
       </c>
-      <c r="H472" s="2">
+      <c r="H472" s="3">
         <v>43428.845833333333</v>
       </c>
-      <c r="I472" s="2">
+      <c r="I472" s="3">
         <v>43428.866666666669</v>
       </c>
     </row>
@@ -14318,10 +14322,10 @@
       <c r="G473" t="s">
         <v>17</v>
       </c>
-      <c r="H473" s="2">
+      <c r="H473" s="3">
         <v>43428.866666666669</v>
       </c>
-      <c r="I473" s="2">
+      <c r="I473" s="3">
         <v>43428.887499999997</v>
       </c>
     </row>
@@ -14347,10 +14351,10 @@
       <c r="G474" t="s">
         <v>17</v>
       </c>
-      <c r="H474" s="2">
+      <c r="H474" s="3">
         <v>43428.887499999997</v>
       </c>
-      <c r="I474" s="2">
+      <c r="I474" s="3">
         <v>43428.908333333333</v>
       </c>
     </row>
@@ -14376,10 +14380,10 @@
       <c r="G475" t="s">
         <v>17</v>
       </c>
-      <c r="H475" s="2">
+      <c r="H475" s="3">
         <v>43419.67083333333</v>
       </c>
-      <c r="I475" s="2">
+      <c r="I475" s="3">
         <v>43419.8125</v>
       </c>
     </row>
@@ -14405,10 +14409,10 @@
       <c r="G476" t="s">
         <v>17</v>
       </c>
-      <c r="H476" s="2">
+      <c r="H476" s="3">
         <v>43419.529166666667</v>
       </c>
-      <c r="I476" s="2">
+      <c r="I476" s="3">
         <v>43419.67083333333</v>
       </c>
     </row>
@@ -14434,10 +14438,10 @@
       <c r="G477" t="s">
         <v>23</v>
       </c>
-      <c r="H477" s="2">
+      <c r="H477" s="3">
         <v>43428.908333333333</v>
       </c>
-      <c r="I477" s="2">
+      <c r="I477" s="3">
         <v>43428.929166666669</v>
       </c>
     </row>
@@ -14463,10 +14467,10 @@
       <c r="G478" t="s">
         <v>23</v>
       </c>
-      <c r="H478" s="2">
+      <c r="H478" s="3">
         <v>43419.8125</v>
       </c>
-      <c r="I478" s="2">
+      <c r="I478" s="3">
         <v>43420.04583333333</v>
       </c>
     </row>
@@ -14492,10 +14496,10 @@
       <c r="G479" t="s">
         <v>17</v>
       </c>
-      <c r="H479" s="2">
+      <c r="H479" s="3">
         <v>43424.091666666667</v>
       </c>
-      <c r="I479" s="2">
+      <c r="I479" s="3">
         <v>43424.716666666667</v>
       </c>
     </row>
@@ -14521,10 +14525,10 @@
       <c r="G480" t="s">
         <v>17</v>
       </c>
-      <c r="H480" s="2">
+      <c r="H480" s="3">
         <v>43428.929166666669</v>
       </c>
-      <c r="I480" s="2">
+      <c r="I480" s="3">
         <v>43428.95</v>
       </c>
     </row>
@@ -14550,10 +14554,10 @@
       <c r="G481" t="s">
         <v>23</v>
       </c>
-      <c r="H481" s="2">
+      <c r="H481" s="3">
         <v>43428.95</v>
       </c>
-      <c r="I481" s="2">
+      <c r="I481" s="3">
         <v>43428.970833333333</v>
       </c>
     </row>
@@ -14579,10 +14583,10 @@
       <c r="G482" t="s">
         <v>23</v>
       </c>
-      <c r="H482" s="2">
+      <c r="H482" s="3">
         <v>43428.970833333333</v>
       </c>
-      <c r="I482" s="2">
+      <c r="I482" s="3">
         <v>43428.991666666669</v>
       </c>
     </row>
@@ -14608,10 +14612,10 @@
       <c r="G483" t="s">
         <v>17</v>
       </c>
-      <c r="H483" s="2">
+      <c r="H483" s="3">
         <v>43427.004166666673</v>
       </c>
-      <c r="I483" s="2">
+      <c r="I483" s="3">
         <v>43427.737500000003</v>
       </c>
     </row>
@@ -14637,10 +14641,10 @@
       <c r="G484" t="s">
         <v>17</v>
       </c>
-      <c r="H484" s="2">
+      <c r="H484" s="3">
         <v>43428.237500000003</v>
       </c>
-      <c r="I484" s="2">
+      <c r="I484" s="3">
         <v>43428.862500000003</v>
       </c>
     </row>
@@ -14666,10 +14670,10 @@
       <c r="G485" t="s">
         <v>17</v>
       </c>
-      <c r="H485" s="2">
+      <c r="H485" s="3">
         <v>43420.04583333333</v>
       </c>
-      <c r="I485" s="2">
+      <c r="I485" s="3">
         <v>43420.1875</v>
       </c>
     </row>
@@ -14695,10 +14699,10 @@
       <c r="G486" t="s">
         <v>17</v>
       </c>
-      <c r="H486" s="2">
+      <c r="H486" s="3">
         <v>43428.991666666669</v>
       </c>
-      <c r="I486" s="2">
+      <c r="I486" s="3">
         <v>43429.012499999997</v>
       </c>
     </row>
@@ -14724,10 +14728,10 @@
       <c r="G487" t="s">
         <v>17</v>
       </c>
-      <c r="H487" s="2">
+      <c r="H487" s="3">
         <v>43429.345833333333</v>
       </c>
-      <c r="I487" s="2">
+      <c r="I487" s="3">
         <v>43430.07916666667</v>
       </c>
     </row>
@@ -14753,10 +14757,10 @@
       <c r="G488" t="s">
         <v>17</v>
       </c>
-      <c r="H488" s="2">
+      <c r="H488" s="3">
         <v>43429.012499999997</v>
       </c>
-      <c r="I488" s="2">
+      <c r="I488" s="3">
         <v>43429.033333333333</v>
       </c>
     </row>
@@ -14782,10 +14786,10 @@
       <c r="G489" t="s">
         <v>17</v>
       </c>
-      <c r="H489" s="2">
+      <c r="H489" s="3">
         <v>43429.033333333333</v>
       </c>
-      <c r="I489" s="2">
+      <c r="I489" s="3">
         <v>43429.054166666669</v>
       </c>
     </row>
@@ -14811,10 +14815,10 @@
       <c r="G490" t="s">
         <v>17</v>
       </c>
-      <c r="H490" s="2">
+      <c r="H490" s="3">
         <v>43430.07916666667</v>
       </c>
-      <c r="I490" s="2">
+      <c r="I490" s="3">
         <v>43430.1</v>
       </c>
     </row>
@@ -14840,10 +14844,10 @@
       <c r="G491" t="s">
         <v>17</v>
       </c>
-      <c r="H491" s="2">
+      <c r="H491" s="3">
         <v>43430.1</v>
       </c>
-      <c r="I491" s="2">
+      <c r="I491" s="3">
         <v>43430.120833333327</v>
       </c>
     </row>
@@ -14869,10 +14873,10 @@
       <c r="G492" t="s">
         <v>17</v>
       </c>
-      <c r="H492" s="2">
+      <c r="H492" s="3">
         <v>43417.85</v>
       </c>
-      <c r="I492" s="2">
+      <c r="I492" s="3">
         <v>43418.125</v>
       </c>
     </row>
@@ -14898,10 +14902,10 @@
       <c r="G493" t="s">
         <v>17</v>
       </c>
-      <c r="H493" s="2">
+      <c r="H493" s="3">
         <v>43430.57916666667</v>
       </c>
-      <c r="I493" s="2">
+      <c r="I493" s="3">
         <v>43431.20416666667</v>
       </c>
     </row>
@@ -14927,10 +14931,10 @@
       <c r="G494" t="s">
         <v>17</v>
       </c>
-      <c r="H494" s="2">
+      <c r="H494" s="3">
         <v>43420.1875</v>
       </c>
-      <c r="I494" s="2">
+      <c r="I494" s="3">
         <v>43420.32916666667</v>
       </c>
     </row>
@@ -14956,10 +14960,10 @@
       <c r="G495" t="s">
         <v>17</v>
       </c>
-      <c r="H495" s="2">
+      <c r="H495" s="3">
         <v>43431.70416666667</v>
       </c>
-      <c r="I495" s="2">
+      <c r="I495" s="3">
         <v>43432.32916666667</v>
       </c>
     </row>
@@ -14985,10 +14989,10 @@
       <c r="G496" t="s">
         <v>17</v>
       </c>
-      <c r="H496" s="2">
+      <c r="H496" s="3">
         <v>43425.216666666667</v>
       </c>
-      <c r="I496" s="2">
+      <c r="I496" s="3">
         <v>43425.95</v>
       </c>
     </row>
@@ -15014,10 +15018,10 @@
       <c r="G497" t="s">
         <v>17</v>
       </c>
-      <c r="H497" s="2">
+      <c r="H497" s="3">
         <v>43430.120833333327</v>
       </c>
-      <c r="I497" s="2">
+      <c r="I497" s="3">
         <v>43430.14166666667</v>
       </c>
     </row>
@@ -15043,10 +15047,10 @@
       <c r="G498" t="s">
         <v>17</v>
       </c>
-      <c r="H498" s="2">
+      <c r="H498" s="3">
         <v>43420.1875</v>
       </c>
-      <c r="I498" s="2">
+      <c r="I498" s="3">
         <v>43420.32916666667</v>
       </c>
     </row>
@@ -15072,10 +15076,10 @@
       <c r="G499" t="s">
         <v>17</v>
       </c>
-      <c r="H499" s="2">
+      <c r="H499" s="3">
         <v>43427.45</v>
       </c>
-      <c r="I499" s="2">
+      <c r="I499" s="3">
         <v>43428.074999999997</v>
       </c>
     </row>
@@ -15101,10 +15105,10 @@
       <c r="G500" t="s">
         <v>23</v>
       </c>
-      <c r="H500" s="2">
+      <c r="H500" s="3">
         <v>43428.574999999997</v>
       </c>
-      <c r="I500" s="2">
+      <c r="I500" s="3">
         <v>43428.945833333331</v>
       </c>
     </row>
@@ -15130,10 +15134,10 @@
       <c r="G501" t="s">
         <v>17</v>
       </c>
-      <c r="H501" s="2">
+      <c r="H501" s="3">
         <v>43430.14166666667</v>
       </c>
-      <c r="I501" s="2">
+      <c r="I501" s="3">
         <v>43430.162499999999</v>
       </c>
     </row>
@@ -15159,10 +15163,10 @@
       <c r="G502" t="s">
         <v>17</v>
       </c>
-      <c r="H502" s="2">
+      <c r="H502" s="3">
         <v>43430.162499999999</v>
       </c>
-      <c r="I502" s="2">
+      <c r="I502" s="3">
         <v>43430.183333333327</v>
       </c>
     </row>
@@ -15188,10 +15192,10 @@
       <c r="G503" t="s">
         <v>17</v>
       </c>
-      <c r="H503" s="2">
+      <c r="H503" s="3">
         <v>43431.20416666667</v>
       </c>
-      <c r="I503" s="2">
+      <c r="I503" s="3">
         <v>43431.224999999999</v>
       </c>
     </row>
@@ -15217,10 +15221,10 @@
       <c r="G504" t="s">
         <v>17</v>
       </c>
-      <c r="H504" s="2">
+      <c r="H504" s="3">
         <v>43431.224999999999</v>
       </c>
-      <c r="I504" s="2">
+      <c r="I504" s="3">
         <v>43431.245833333327</v>
       </c>
     </row>
@@ -15246,10 +15250,10 @@
       <c r="G505" t="s">
         <v>17</v>
       </c>
-      <c r="H505" s="2">
+      <c r="H505" s="3">
         <v>43431.245833333327</v>
       </c>
-      <c r="I505" s="2">
+      <c r="I505" s="3">
         <v>43431.26666666667</v>
       </c>
     </row>
@@ -15275,10 +15279,10 @@
       <c r="G506" t="s">
         <v>17</v>
       </c>
-      <c r="H506" s="2">
+      <c r="H506" s="3">
         <v>43432.82916666667</v>
       </c>
-      <c r="I506" s="2">
+      <c r="I506" s="3">
         <v>43433.5625</v>
       </c>
     </row>
@@ -15304,10 +15308,10 @@
       <c r="G507" t="s">
         <v>17</v>
       </c>
-      <c r="H507" s="2">
+      <c r="H507" s="3">
         <v>43431.26666666667</v>
       </c>
-      <c r="I507" s="2">
+      <c r="I507" s="3">
         <v>43431.287499999999</v>
       </c>
     </row>
@@ -15333,10 +15337,10 @@
       <c r="G508" t="s">
         <v>17</v>
       </c>
-      <c r="H508" s="2">
+      <c r="H508" s="3">
         <v>43431.287499999999</v>
       </c>
-      <c r="I508" s="2">
+      <c r="I508" s="3">
         <v>43431.308333333327</v>
       </c>
     </row>
@@ -15362,10 +15366,10 @@
       <c r="G509" t="s">
         <v>17</v>
       </c>
-      <c r="H509" s="2">
+      <c r="H509" s="3">
         <v>43420.04583333333</v>
       </c>
-      <c r="I509" s="2">
+      <c r="I509" s="3">
         <v>43420.1875</v>
       </c>
     </row>
@@ -15391,10 +15395,10 @@
       <c r="G510" t="s">
         <v>17</v>
       </c>
-      <c r="H510" s="2">
+      <c r="H510" s="3">
         <v>43431.308333333327</v>
       </c>
-      <c r="I510" s="2">
+      <c r="I510" s="3">
         <v>43431.32916666667</v>
       </c>
     </row>
@@ -15420,10 +15424,10 @@
       <c r="G511" t="s">
         <v>17</v>
       </c>
-      <c r="H511" s="2">
+      <c r="H511" s="3">
         <v>43429.362500000003</v>
       </c>
-      <c r="I511" s="2">
+      <c r="I511" s="3">
         <v>43429.987500000003</v>
       </c>
     </row>
@@ -15449,10 +15453,10 @@
       <c r="G512" t="s">
         <v>23</v>
       </c>
-      <c r="H512" s="2">
+      <c r="H512" s="3">
         <v>43431.32916666667</v>
       </c>
-      <c r="I512" s="2">
+      <c r="I512" s="3">
         <v>43431.35</v>
       </c>
     </row>
@@ -15478,10 +15482,10 @@
       <c r="G513" t="s">
         <v>23</v>
       </c>
-      <c r="H513" s="2">
+      <c r="H513" s="3">
         <v>43431.35</v>
       </c>
-      <c r="I513" s="2">
+      <c r="I513" s="3">
         <v>43431.370833333327</v>
       </c>
     </row>
@@ -15507,10 +15511,10 @@
       <c r="G514" t="s">
         <v>17</v>
       </c>
-      <c r="H514" s="2">
+      <c r="H514" s="3">
         <v>43433.5625</v>
       </c>
-      <c r="I514" s="2">
+      <c r="I514" s="3">
         <v>43433.583333333343</v>
       </c>
     </row>
@@ -15536,10 +15540,10 @@
       <c r="G515" t="s">
         <v>23</v>
       </c>
-      <c r="H515" s="2">
+      <c r="H515" s="3">
         <v>43433.583333333343</v>
       </c>
-      <c r="I515" s="2">
+      <c r="I515" s="3">
         <v>43433.604166666657</v>
       </c>
     </row>
@@ -15565,10 +15569,10 @@
       <c r="G516" t="s">
         <v>17</v>
       </c>
-      <c r="H516" s="2">
+      <c r="H516" s="3">
         <v>43433.604166666657</v>
       </c>
-      <c r="I516" s="2">
+      <c r="I516" s="3">
         <v>43433.625</v>
       </c>
     </row>
@@ -15594,10 +15598,10 @@
       <c r="G517" t="s">
         <v>17</v>
       </c>
-      <c r="H517" s="2">
+      <c r="H517" s="3">
         <v>43428.945833333331</v>
       </c>
-      <c r="I517" s="2">
+      <c r="I517" s="3">
         <v>43429.679166666669</v>
       </c>
     </row>
@@ -15623,10 +15627,10 @@
       <c r="G518" t="s">
         <v>23</v>
       </c>
-      <c r="H518" s="2">
+      <c r="H518" s="3">
         <v>43430.179166666669</v>
       </c>
-      <c r="I518" s="2">
+      <c r="I518" s="3">
         <v>43430.55</v>
       </c>
     </row>
@@ -15652,10 +15656,10 @@
       <c r="G519" t="s">
         <v>17</v>
       </c>
-      <c r="H519" s="2">
+      <c r="H519" s="3">
         <v>43430.55</v>
       </c>
-      <c r="I519" s="2">
+      <c r="I519" s="3">
         <v>43431.175000000003</v>
       </c>
     </row>
@@ -15681,10 +15685,10 @@
       <c r="G520" t="s">
         <v>17</v>
       </c>
-      <c r="H520" s="2">
+      <c r="H520" s="3">
         <v>43433.625</v>
       </c>
-      <c r="I520" s="2">
+      <c r="I520" s="3">
         <v>43433.645833333343</v>
       </c>
     </row>
@@ -15710,10 +15714,10 @@
       <c r="G521" t="s">
         <v>17</v>
       </c>
-      <c r="H521" s="2">
+      <c r="H521" s="3">
         <v>43433.645833333343</v>
       </c>
-      <c r="I521" s="2">
+      <c r="I521" s="3">
         <v>43433.666666666657</v>
       </c>
     </row>
@@ -15739,10 +15743,10 @@
       <c r="G522" t="s">
         <v>23</v>
       </c>
-      <c r="H522" s="2">
+      <c r="H522" s="3">
         <v>43433.666666666657</v>
       </c>
-      <c r="I522" s="2">
+      <c r="I522" s="3">
         <v>43433.6875</v>
       </c>
     </row>
@@ -15768,10 +15772,10 @@
       <c r="G523" t="s">
         <v>23</v>
       </c>
-      <c r="H523" s="2">
+      <c r="H523" s="3">
         <v>43433.6875</v>
       </c>
-      <c r="I523" s="2">
+      <c r="I523" s="3">
         <v>43433.708333333343</v>
       </c>
     </row>
@@ -15797,10 +15801,10 @@
       <c r="G524" t="s">
         <v>23</v>
       </c>
-      <c r="H524" s="2">
+      <c r="H524" s="3">
         <v>43433.708333333343</v>
       </c>
-      <c r="I524" s="2">
+      <c r="I524" s="3">
         <v>43433.729166666657</v>
       </c>
     </row>
@@ -15826,10 +15830,10 @@
       <c r="G525" t="s">
         <v>23</v>
       </c>
-      <c r="H525" s="2">
+      <c r="H525" s="3">
         <v>43431.675000000003</v>
       </c>
-      <c r="I525" s="2">
+      <c r="I525" s="3">
         <v>43432.04583333333</v>
       </c>
     </row>
@@ -15855,10 +15859,10 @@
       <c r="G526" t="s">
         <v>17</v>
       </c>
-      <c r="H526" s="2">
+      <c r="H526" s="3">
         <v>43433.729166666657</v>
       </c>
-      <c r="I526" s="2">
+      <c r="I526" s="3">
         <v>43433.75</v>
       </c>
     </row>
@@ -15884,10 +15888,10 @@
       <c r="G527" t="s">
         <v>23</v>
       </c>
-      <c r="H527" s="2">
+      <c r="H527" s="3">
         <v>43433.75</v>
       </c>
-      <c r="I527" s="2">
+      <c r="I527" s="3">
         <v>43433.770833333343</v>
       </c>
     </row>
@@ -15913,10 +15917,10 @@
       <c r="G528" t="s">
         <v>17</v>
       </c>
-      <c r="H528" s="2">
+      <c r="H528" s="3">
         <v>43433.770833333343</v>
       </c>
-      <c r="I528" s="2">
+      <c r="I528" s="3">
         <v>43433.791666666657</v>
       </c>
     </row>
@@ -15942,10 +15946,10 @@
       <c r="G529" t="s">
         <v>23</v>
       </c>
-      <c r="H529" s="2">
+      <c r="H529" s="3">
         <v>43433.791666666657</v>
       </c>
-      <c r="I529" s="2">
+      <c r="I529" s="3">
         <v>43433.8125</v>
       </c>
     </row>
@@ -15971,10 +15975,10 @@
       <c r="G530" t="s">
         <v>17</v>
       </c>
-      <c r="H530" s="2">
+      <c r="H530" s="3">
         <v>43433.8125</v>
       </c>
-      <c r="I530" s="2">
+      <c r="I530" s="3">
         <v>43433.833333333343</v>
       </c>
     </row>
@@ -16000,10 +16004,10 @@
       <c r="G531" t="s">
         <v>17</v>
       </c>
-      <c r="H531" s="2">
+      <c r="H531" s="3">
         <v>43433.833333333343</v>
       </c>
-      <c r="I531" s="2">
+      <c r="I531" s="3">
         <v>43433.854166666657</v>
       </c>
     </row>
@@ -16029,10 +16033,10 @@
       <c r="G532" t="s">
         <v>17</v>
       </c>
-      <c r="H532" s="2">
+      <c r="H532" s="3">
         <v>43433.854166666657</v>
       </c>
-      <c r="I532" s="2">
+      <c r="I532" s="3">
         <v>43433.875</v>
       </c>
     </row>

--- a/src/data/output2.xlsx
+++ b/src/data/output2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/github-repositories/LNWG/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FCB129-62FD-F945-AC63-1DE904D934B0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3F99E3-FB7B-6B4D-AC58-42696859B1D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,13 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="best_solution" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">best_solution!$A$1:$G$532</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -215,12 +218,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -250,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -260,6 +269,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11126,7 +11139,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88478372-27EC-4C41-BA33-A4D4CAC14505}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88478372-27EC-4C41-BA33-A4D4CAC14505}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -11405,7 +11418,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65401F19-20DC-FF49-AE87-9FA00F0CE261}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65401F19-20DC-FF49-AE87-9FA00F0CE261}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -13341,10 +13354,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13370,25 +13384,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>19022178</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13415,7 +13429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -13438,7 +13452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -13461,7 +13475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13484,7 +13498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13507,7 +13521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13530,7 +13544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13553,7 +13567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13576,7 +13590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13599,7 +13613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13622,7 +13636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -13645,7 +13659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13668,7 +13682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -13691,7 +13705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -13714,7 +13728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -13737,7 +13751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -13760,7 +13774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -13783,7 +13797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -13806,7 +13820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -13829,7 +13843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -13852,7 +13866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13875,7 +13889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13898,7 +13912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -13921,7 +13935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -13944,7 +13958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -13967,7 +13981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -13990,7 +14004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -14013,7 +14027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -14036,7 +14050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -14059,7 +14073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -14082,7 +14096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -14105,7 +14119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -14128,7 +14142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -14151,7 +14165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -14174,7 +14188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -14197,7 +14211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -14220,7 +14234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -14243,7 +14257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -14266,7 +14280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -14289,7 +14303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -14312,7 +14326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -14335,7 +14349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -14358,7 +14372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -14381,7 +14395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -14404,7 +14418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -14427,7 +14441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -14450,7 +14464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -14473,7 +14487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -14496,7 +14510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -14519,7 +14533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -14542,7 +14556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -14565,7 +14579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -14588,7 +14602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -14611,7 +14625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -14634,7 +14648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -14657,7 +14671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -14680,7 +14694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -14703,7 +14717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -14726,7 +14740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -14749,7 +14763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -14772,7 +14786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -14795,7 +14809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -14818,7 +14832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -14841,7 +14855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -14864,7 +14878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -14887,7 +14901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -14910,7 +14924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -14933,7 +14947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -14956,7 +14970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -14979,7 +14993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -15002,7 +15016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -15025,7 +15039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -15048,7 +15062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -15071,7 +15085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -15094,7 +15108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -15117,7 +15131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -15140,7 +15154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -15163,7 +15177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -15186,7 +15200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -15209,7 +15223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -15232,7 +15246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -15255,7 +15269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -15278,7 +15292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -15301,7 +15315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -15324,7 +15338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -15347,7 +15361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -15370,7 +15384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -15393,7 +15407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -15416,7 +15430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -15462,7 +15476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -15485,7 +15499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -15508,7 +15522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -15531,7 +15545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -15554,7 +15568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -15577,7 +15591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -15600,7 +15614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -15623,7 +15637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -15646,7 +15660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -15669,7 +15683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -15692,7 +15706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -15715,7 +15729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -15738,7 +15752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -15761,7 +15775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -15784,7 +15798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -15807,7 +15821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -15830,7 +15844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -15853,7 +15867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -15876,7 +15890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -15899,7 +15913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -15922,7 +15936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -15945,7 +15959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -15968,7 +15982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -15991,7 +16005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -16014,7 +16028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -16037,7 +16051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -16060,7 +16074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -16083,7 +16097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -16106,7 +16120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -16129,7 +16143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -16152,7 +16166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -16175,7 +16189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -16198,7 +16212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -16221,7 +16235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -16244,7 +16258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -16267,7 +16281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -16290,7 +16304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -16313,7 +16327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -16336,7 +16350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -16359,7 +16373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -16382,7 +16396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -16405,7 +16419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -16428,7 +16442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -16451,7 +16465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -16474,7 +16488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -16497,7 +16511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -16520,7 +16534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -16543,7 +16557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -16566,7 +16580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -16589,7 +16603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -16612,7 +16626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -16635,7 +16649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -16658,7 +16672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -16681,7 +16695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -16704,7 +16718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -16727,7 +16741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -16750,7 +16764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -16773,7 +16787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -16796,7 +16810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -16819,7 +16833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -16842,7 +16856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -16865,7 +16879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -16888,7 +16902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -16911,7 +16925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -16934,7 +16948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -16957,7 +16971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -16980,7 +16994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -17003,7 +17017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -17026,7 +17040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -17049,7 +17063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -17072,7 +17086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -17095,7 +17109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -17118,7 +17132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -17141,7 +17155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -17164,7 +17178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -17187,7 +17201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -17210,7 +17224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -17233,7 +17247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -17256,7 +17270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -17279,7 +17293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -17302,7 +17316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -17325,7 +17339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -17348,7 +17362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -17371,7 +17385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -17394,7 +17408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -17417,7 +17431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -17440,7 +17454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -17463,7 +17477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -17486,7 +17500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -17509,7 +17523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -17532,7 +17546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -17555,7 +17569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -17578,7 +17592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -17601,7 +17615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -17624,7 +17638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -17647,7 +17661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -17670,7 +17684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -17693,7 +17707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -17716,7 +17730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -17739,7 +17753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -17762,7 +17776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -17785,7 +17799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -17808,7 +17822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -17831,7 +17845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -17854,7 +17868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -17877,7 +17891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -17900,7 +17914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -17923,7 +17937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -17946,7 +17960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -17969,7 +17983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -17992,7 +18006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -18015,7 +18029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -18038,7 +18052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -18061,7 +18075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -18084,7 +18098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -18107,7 +18121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -18130,7 +18144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -18153,7 +18167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -18176,7 +18190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -18199,7 +18213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -18222,7 +18236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -18245,7 +18259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -18268,7 +18282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -18291,7 +18305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -18314,7 +18328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -18337,7 +18351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -18360,7 +18374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -18383,7 +18397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -18406,7 +18420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -18429,7 +18443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -18452,7 +18466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -18475,7 +18489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -18498,7 +18512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -18521,7 +18535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -18544,7 +18558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -18567,7 +18581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -18590,7 +18604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -18613,7 +18627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -18636,7 +18650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -18659,7 +18673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -18682,7 +18696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -18705,7 +18719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -18728,7 +18742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -18751,7 +18765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -18774,7 +18788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -18797,7 +18811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -18820,7 +18834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -18843,7 +18857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -18866,7 +18880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -18889,7 +18903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -18912,7 +18926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -18935,7 +18949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -18958,7 +18972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -18981,7 +18995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -19004,7 +19018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -19027,7 +19041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -19050,7 +19064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -19073,7 +19087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -19096,7 +19110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -19119,7 +19133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -19142,7 +19156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -19165,7 +19179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -19188,7 +19202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -19211,7 +19225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -19234,7 +19248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -19257,7 +19271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -19280,7 +19294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -19303,7 +19317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -19326,7 +19340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -19349,7 +19363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -19372,7 +19386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -19395,7 +19409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -19418,7 +19432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -19441,7 +19455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -19464,7 +19478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -19487,7 +19501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -19510,7 +19524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -19533,7 +19547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -19556,7 +19570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -19579,7 +19593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -19602,7 +19616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -19625,7 +19639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -19648,7 +19662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -19671,7 +19685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -19694,7 +19708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -19717,7 +19731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -19740,7 +19754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -19763,7 +19777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -19786,7 +19800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -19809,7 +19823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -19832,7 +19846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -19855,7 +19869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -19878,7 +19892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -19901,7 +19915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -19924,7 +19938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -19947,7 +19961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -19970,7 +19984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -20016,7 +20030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -20039,7 +20053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -20062,7 +20076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -20085,7 +20099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -20108,7 +20122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -20131,7 +20145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -20154,7 +20168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -20177,7 +20191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -20200,7 +20214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -20223,7 +20237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -20246,7 +20260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -20269,7 +20283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -20292,7 +20306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -20315,7 +20329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -20338,7 +20352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -20361,7 +20375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -20384,7 +20398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -20407,7 +20421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -20430,7 +20444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -20453,7 +20467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -20476,7 +20490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -20499,7 +20513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -20522,7 +20536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -20545,7 +20559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -20568,7 +20582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -20591,7 +20605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -20614,7 +20628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -20637,7 +20651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -20660,7 +20674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -20683,7 +20697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -20706,7 +20720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -20729,7 +20743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -20752,7 +20766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -20775,7 +20789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -20798,7 +20812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -20821,7 +20835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -20844,7 +20858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -20867,7 +20881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -20890,7 +20904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -20913,7 +20927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -20936,7 +20950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -20959,7 +20973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -20982,7 +20996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -21005,7 +21019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -21028,7 +21042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -21051,7 +21065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -21074,7 +21088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -21097,7 +21111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -21120,7 +21134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -21143,7 +21157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -21166,7 +21180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -21189,7 +21203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -21212,7 +21226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -21235,7 +21249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -21258,7 +21272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -21281,7 +21295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -21304,7 +21318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -21327,7 +21341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -21350,7 +21364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -21373,7 +21387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -21396,7 +21410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -21419,7 +21433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -21442,7 +21456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -21465,7 +21479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -21488,7 +21502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -21511,7 +21525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -21534,7 +21548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -21557,7 +21571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -21580,7 +21594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -21603,7 +21617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -21626,7 +21640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -21649,7 +21663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -21672,7 +21686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -21695,7 +21709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -21718,7 +21732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -21741,7 +21755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -21764,7 +21778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -21787,7 +21801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -21810,7 +21824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -21833,7 +21847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -21856,7 +21870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -21879,7 +21893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -21902,7 +21916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -21925,7 +21939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -21948,7 +21962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -21971,7 +21985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -21994,7 +22008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -22017,7 +22031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -22040,7 +22054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -22063,7 +22077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -22086,7 +22100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -22109,7 +22123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -22132,7 +22146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -22155,7 +22169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -22178,7 +22192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -22201,7 +22215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -22224,7 +22238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -22247,7 +22261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -22270,7 +22284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -22293,7 +22307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -22316,7 +22330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -22339,7 +22353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -22362,7 +22376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -22385,7 +22399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -22408,7 +22422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -22431,7 +22445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -22454,7 +22468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -22477,7 +22491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -22500,7 +22514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -22523,7 +22537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -22546,7 +22560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -22569,7 +22583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -22592,7 +22606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -22615,7 +22629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -22638,7 +22652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -22661,7 +22675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -22684,7 +22698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -22707,7 +22721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -22730,7 +22744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -22753,7 +22767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -22776,7 +22790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -22799,7 +22813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -22822,7 +22836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -22845,7 +22859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -22868,7 +22882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -22891,7 +22905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -22914,7 +22928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -22937,7 +22951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -22960,7 +22974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -22983,7 +22997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -23006,7 +23020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -23029,7 +23043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -23052,7 +23066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -23075,7 +23089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -23098,7 +23112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -23121,7 +23135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -23144,7 +23158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -23167,7 +23181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -23190,7 +23204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -23213,7 +23227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -23236,7 +23250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -23259,7 +23273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -23282,7 +23296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -23305,7 +23319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -23328,7 +23342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -23351,7 +23365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -23374,7 +23388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -23397,7 +23411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -23420,7 +23434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -23443,7 +23457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -23466,7 +23480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -23489,7 +23503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -23512,7 +23526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -23535,7 +23549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -23558,7 +23572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -23581,7 +23595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -23604,7 +23618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -23627,7 +23641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -23650,7 +23664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -23673,7 +23687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -23696,7 +23710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -23719,7 +23733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -23742,7 +23756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -23765,7 +23779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -23788,7 +23802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -23811,7 +23825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -23834,7 +23848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -23857,7 +23871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -23880,7 +23894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -23903,7 +23917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -23926,7 +23940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -23949,7 +23963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -23972,7 +23986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -23995,7 +24009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -24018,7 +24032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -24041,7 +24055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -24064,7 +24078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -24087,7 +24101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -24110,7 +24124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -24133,7 +24147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -24156,7 +24170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -24179,7 +24193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -24202,7 +24216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -24225,7 +24239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -24248,7 +24262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -24271,7 +24285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -24294,7 +24308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -24317,7 +24331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -24340,7 +24354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -24363,7 +24377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -24386,7 +24400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -24409,7 +24423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -24432,7 +24446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -24455,7 +24469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -24478,7 +24492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -24501,7 +24515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -24524,7 +24538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -24547,7 +24561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -24570,7 +24584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -24593,7 +24607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -24616,7 +24630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -24639,7 +24653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -24662,7 +24676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -24685,7 +24699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -24708,7 +24722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -24731,7 +24745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -24754,7 +24768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -24777,7 +24791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -24800,7 +24814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -24823,7 +24837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -24846,7 +24860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -24869,7 +24883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -24892,7 +24906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -24915,7 +24929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -24938,7 +24952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -24961,7 +24975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -24984,7 +24998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -25007,7 +25021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -25030,7 +25044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -25053,7 +25067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -25076,7 +25090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -25099,7 +25113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -25122,7 +25136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -25145,7 +25159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -25168,7 +25182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -25191,7 +25205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -25214,7 +25228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -25237,7 +25251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -25260,7 +25274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -25283,7 +25297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -25306,7 +25320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -25329,7 +25343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -25352,7 +25366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -25375,7 +25389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -25398,7 +25412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -25421,7 +25435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -25444,7 +25458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -25467,7 +25481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -25490,7 +25504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -25513,7 +25527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -25536,7 +25550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -25559,7 +25573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -25583,6 +25597,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G532" xr:uid="{274D5225-2B28-934B-BF0C-7D077EDE4430}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+        <filter val="288"/>
+        <filter val="90"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>